--- a/Review Meet-it/Iteration2/Iteration 2 Review_Meet-it.xlsx
+++ b/Review Meet-it/Iteration2/Iteration 2 Review_Meet-it.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAHIT YESILYAPRAK\Deniz\METU_Classes\4th Semester\SM504 - Team Project\PROJECT\REVIEWS\Iteration-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7908"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sayfa1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sayfa1!$A$1:$W$56</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2C17F18A_3916_4E8C_A808_C3E1A2ADEC62_.wvu.FilterData">Sayfa1!$A$1:$W$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$W$56</definedName>
+    <definedName name="Z_2C17F18A_3916_4E8C_A808_C3E1A2ADEC62_.wvu.FilterData" localSheetId="0" hidden="1">Sayfa1!$A$1:$W$41</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{2C17F18A-3916-4E8C-A808-C3E1A2ADEC62}" name="Filtre 1"/>
+    <customWorkbookView name="Filtre 1" guid="{2C17F18A-3916-4E8C-A808-C3E1A2ADEC62}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -220,24 +229,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -247,99 +262,107 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -529,33 +552,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W983"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="19.86"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="12.43"/>
-    <col customWidth="1" min="7" max="7" width="37.71"/>
-    <col customWidth="1" min="8" max="8" width="17.86"/>
-    <col customWidth="1" min="9" max="9" width="25.57"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="227.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,11 +623,11 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -621,18 +648,18 @@
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>16</v>
@@ -646,18 +673,18 @@
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>21</v>
@@ -671,11 +698,11 @@
       <c r="H4" s="7"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -696,18 +723,18 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
@@ -721,18 +748,18 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -746,11 +773,11 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -771,18 +798,18 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -796,18 +823,18 @@
       <c r="H9" s="7"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>11</v>
@@ -821,18 +848,18 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>11.0</v>
-      </c>
-      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>36</v>
@@ -846,18 +873,18 @@
       <c r="H11" s="7"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
@@ -871,18 +898,18 @@
       <c r="H12" s="7"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>21</v>
@@ -896,11 +923,11 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -921,11 +948,11 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -946,11 +973,11 @@
       <c r="H15" s="7"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -971,11 +998,11 @@
       <c r="H16" s="7"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -996,18 +1023,18 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>18.0</v>
-      </c>
-      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>21</v>
@@ -1021,18 +1048,18 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>58</v>
@@ -1046,18 +1073,18 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
@@ -1071,11 +1098,11 @@
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1096,9 +1123,9 @@
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
@@ -1109,9 +1136,9 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
@@ -1122,9 +1149,9 @@
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
@@ -1135,9 +1162,9 @@
       <c r="H24" s="7"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
@@ -1148,9 +1175,9 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1161,9 +1188,9 @@
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
@@ -1174,9 +1201,9 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
@@ -1187,9 +1214,9 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1200,9 +1227,9 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
@@ -1213,9 +1240,9 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1226,9 +1253,9 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
@@ -1239,9 +1266,9 @@
       <c r="H32" s="7"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
@@ -1252,9 +1279,9 @@
       <c r="H33" s="7"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
@@ -1265,9 +1292,9 @@
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
@@ -1278,9 +1305,9 @@
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
@@ -1291,9 +1318,9 @@
       <c r="H36" s="7"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
@@ -1304,9 +1331,9 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
@@ -1317,9 +1344,9 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
@@ -1330,9 +1357,9 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
@@ -1343,9 +1370,9 @@
       <c r="H40" s="7"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
@@ -1356,9 +1383,9 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
@@ -1369,9 +1396,9 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
@@ -1382,9 +1409,9 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
@@ -1395,9 +1422,9 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
@@ -1408,9 +1435,9 @@
       <c r="H45" s="7"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
@@ -1421,9 +1448,9 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
@@ -1434,9 +1461,9 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
@@ -1447,9 +1474,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
@@ -1460,9 +1487,9 @@
       <c r="H49" s="7"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
@@ -1473,9 +1500,9 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
@@ -1486,9 +1513,9 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
@@ -1499,9 +1526,9 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
@@ -1512,9 +1539,9 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
@@ -1525,9 +1552,9 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
@@ -1538,9 +1565,9 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="16"/>
@@ -1551,7 +1578,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="7"/>
       <c r="C57" s="21"/>
@@ -1562,7 +1589,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
       <c r="B58" s="7"/>
       <c r="C58" s="21"/>
@@ -1573,7 +1600,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="20"/>
       <c r="B59" s="7"/>
       <c r="C59" s="21"/>
@@ -1584,7 +1611,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="7"/>
       <c r="C60" s="21"/>
@@ -1595,7 +1622,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="7"/>
       <c r="C61" s="21"/>
@@ -1606,7 +1633,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
       <c r="C62" s="21"/>
@@ -1617,7 +1644,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="20"/>
       <c r="B63" s="7"/>
       <c r="C63" s="21"/>
@@ -1628,7 +1655,7 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="7"/>
       <c r="C64" s="21"/>
@@ -1639,7 +1666,7 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="20"/>
       <c r="B65" s="7"/>
       <c r="C65" s="21"/>
@@ -1650,7 +1677,7 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
       <c r="B66" s="7"/>
       <c r="C66" s="21"/>
@@ -1661,7 +1688,7 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="20"/>
       <c r="B67" s="7"/>
       <c r="C67" s="21"/>
@@ -1672,7 +1699,7 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="20"/>
       <c r="B68" s="7"/>
       <c r="C68" s="22"/>
@@ -1683,7 +1710,7 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="20"/>
       <c r="B69" s="7"/>
       <c r="C69" s="22"/>
@@ -1694,7 +1721,7 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="7"/>
       <c r="C70" s="22"/>
@@ -1705,7 +1732,7 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="20"/>
       <c r="B71" s="7"/>
       <c r="C71" s="22"/>
@@ -1716,7 +1743,7 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
       <c r="B72" s="7"/>
       <c r="C72" s="22"/>
@@ -1727,7 +1754,7 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="20"/>
       <c r="B73" s="7"/>
       <c r="C73" s="22"/>
@@ -1738,7 +1765,7 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="7"/>
       <c r="C74" s="22"/>
@@ -1749,7 +1776,7 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="20"/>
       <c r="B75" s="7"/>
       <c r="C75" s="22"/>
@@ -1760,7 +1787,7 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
       <c r="B76" s="7"/>
       <c r="C76" s="22"/>
@@ -1771,7 +1798,7 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="20"/>
       <c r="B77" s="7"/>
       <c r="C77" s="22"/>
@@ -1782,7 +1809,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="7"/>
       <c r="C78" s="22"/>
@@ -1793,7 +1820,7 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="7"/>
       <c r="C79" s="22"/>
@@ -1804,7 +1831,7 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="20"/>
       <c r="B80" s="7"/>
       <c r="C80" s="22"/>
@@ -1815,7 +1842,7 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
       <c r="B81" s="7"/>
       <c r="C81" s="22"/>
@@ -1826,7 +1853,7 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="7"/>
       <c r="C82" s="22"/>
@@ -1837,7 +1864,7 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="20"/>
       <c r="B83" s="7"/>
       <c r="C83" s="22"/>
@@ -1848,7 +1875,7 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="7"/>
       <c r="C84" s="22"/>
@@ -1859,7 +1886,7 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="7"/>
       <c r="C85" s="22"/>
@@ -1870,7 +1897,7 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="7"/>
       <c r="C86" s="22"/>
@@ -1881,7 +1908,7 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="20"/>
       <c r="B87" s="7"/>
       <c r="C87" s="22"/>
@@ -1892,7 +1919,7 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="20"/>
       <c r="B88" s="7"/>
       <c r="C88" s="22"/>
@@ -1903,7 +1930,7 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="20"/>
       <c r="B89" s="7"/>
       <c r="C89" s="22"/>
@@ -1914,7 +1941,7 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="7"/>
       <c r="C90" s="22"/>
@@ -1925,7 +1952,7 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
       <c r="C91" s="22"/>
@@ -1936,7 +1963,7 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="20"/>
       <c r="B92" s="7"/>
       <c r="C92" s="22"/>
@@ -1947,7 +1974,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
@@ -1958,7 +1985,7 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
@@ -1969,7 +1996,7 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="20"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
@@ -1980,7 +2007,7 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="20"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
@@ -1991,7 +2018,7 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="20"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
@@ -2002,7 +2029,7 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="20"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
@@ -2013,7 +2040,7 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
@@ -2024,7 +2051,7 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="20"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
@@ -2035,7 +2062,7 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
@@ -2046,7 +2073,7 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="7"/>
       <c r="C102" s="22"/>
@@ -2057,7 +2084,7 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="7"/>
       <c r="C103" s="22"/>
@@ -2068,7 +2095,7 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104" s="7"/>
       <c r="C104" s="22"/>
@@ -2079,7 +2106,7 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="20"/>
       <c r="B105" s="7"/>
       <c r="C105" s="22"/>
@@ -2090,7 +2117,7 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="20"/>
       <c r="B106" s="7"/>
       <c r="C106" s="22"/>
@@ -2101,7 +2128,7 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107" s="7"/>
       <c r="C107" s="22"/>
@@ -2112,7 +2139,7 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="20"/>
       <c r="B108" s="7"/>
       <c r="C108" s="22"/>
@@ -2123,7 +2150,7 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="20"/>
       <c r="B109" s="7"/>
       <c r="C109" s="22"/>
@@ -2134,7 +2161,7 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="20"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
@@ -2145,7 +2172,7 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -2156,7 +2183,7 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="20"/>
       <c r="B112" s="7"/>
       <c r="C112" s="22"/>
@@ -2167,7 +2194,7 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="20"/>
       <c r="B113" s="7"/>
       <c r="C113" s="22"/>
@@ -2178,7 +2205,7 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="7"/>
       <c r="C114" s="22"/>
@@ -2189,7 +2216,7 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="7"/>
       <c r="C115" s="22"/>
@@ -2200,7 +2227,7 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="7"/>
       <c r="C116" s="22"/>
@@ -2211,7 +2238,7 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="B117" s="7"/>
       <c r="C117" s="22"/>
@@ -2222,7 +2249,7 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="7"/>
       <c r="C118" s="22"/>
@@ -2233,7 +2260,7 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="20"/>
       <c r="B119" s="7"/>
       <c r="C119" s="22"/>
@@ -2244,7 +2271,7 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="20"/>
       <c r="B120" s="7"/>
       <c r="C120" s="22"/>
@@ -2255,7 +2282,7 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="7"/>
       <c r="C121" s="22"/>
@@ -2266,7 +2293,7 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="20"/>
       <c r="B122" s="7"/>
       <c r="C122" s="22"/>
@@ -2277,7 +2304,7 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="7"/>
       <c r="C123" s="22"/>
@@ -2288,7 +2315,7 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="7"/>
       <c r="C124" s="22"/>
@@ -2299,7 +2326,7 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
       <c r="C125" s="22"/>
@@ -2310,7 +2337,7 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="20"/>
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
@@ -2321,7 +2348,7 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="B127" s="7"/>
       <c r="C127" s="22"/>
@@ -2332,7 +2359,7 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="B128" s="7"/>
       <c r="C128" s="22"/>
@@ -2343,7 +2370,7 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="20"/>
       <c r="B129" s="7"/>
       <c r="C129" s="22"/>
@@ -2354,7 +2381,7 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="7"/>
       <c r="C130" s="22"/>
@@ -2365,7 +2392,7 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="20"/>
       <c r="B131" s="7"/>
       <c r="C131" s="22"/>
@@ -2376,7 +2403,7 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="7"/>
       <c r="C132" s="22"/>
@@ -2387,7 +2414,7 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="20"/>
       <c r="B133" s="7"/>
       <c r="C133" s="22"/>
@@ -2398,7 +2425,7 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="7"/>
       <c r="C134" s="22"/>
@@ -2409,7 +2436,7 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="20"/>
       <c r="B135" s="7"/>
       <c r="C135" s="22"/>
@@ -2420,7 +2447,7 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="20"/>
       <c r="B136" s="7"/>
       <c r="C136" s="22"/>
@@ -2431,7 +2458,7 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="20"/>
       <c r="B137" s="7"/>
       <c r="C137" s="22"/>
@@ -2442,7 +2469,7 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="20"/>
       <c r="B138" s="7"/>
       <c r="C138" s="22"/>
@@ -2453,7 +2480,7 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="20"/>
       <c r="B139" s="7"/>
       <c r="C139" s="22"/>
@@ -2464,7 +2491,7 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="20"/>
       <c r="B140" s="7"/>
       <c r="C140" s="22"/>
@@ -2475,7 +2502,7 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="20"/>
       <c r="B141" s="7"/>
       <c r="C141" s="22"/>
@@ -2486,7 +2513,7 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="20"/>
       <c r="B142" s="7"/>
       <c r="C142" s="22"/>
@@ -2497,7 +2524,7 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="20"/>
       <c r="B143" s="7"/>
       <c r="C143" s="22"/>
@@ -2508,7 +2535,7 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="7"/>
       <c r="C144" s="22"/>
@@ -2519,7 +2546,7 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="20"/>
       <c r="B145" s="7"/>
       <c r="C145" s="22"/>
@@ -2530,7 +2557,7 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="20"/>
       <c r="B146" s="7"/>
       <c r="C146" s="22"/>
@@ -2541,7 +2568,7 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="20"/>
       <c r="B147" s="7"/>
       <c r="C147" s="22"/>
@@ -2552,7 +2579,7 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="20"/>
       <c r="B148" s="7"/>
       <c r="C148" s="22"/>
@@ -2563,7 +2590,7 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="20"/>
       <c r="B149" s="7"/>
       <c r="C149" s="22"/>
@@ -2574,7 +2601,7 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="20"/>
       <c r="B150" s="7"/>
       <c r="C150" s="22"/>
@@ -2585,7 +2612,7 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="20"/>
       <c r="B151" s="7"/>
       <c r="C151" s="22"/>
@@ -2596,7 +2623,7 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="7"/>
       <c r="C152" s="22"/>
@@ -2607,7 +2634,7 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="20"/>
       <c r="B153" s="7"/>
       <c r="C153" s="22"/>
@@ -2618,7 +2645,7 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="7"/>
       <c r="C154" s="22"/>
@@ -2629,7 +2656,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="20"/>
       <c r="B155" s="7"/>
       <c r="C155" s="22"/>
@@ -2640,7 +2667,7 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="20"/>
       <c r="B156" s="7"/>
       <c r="C156" s="22"/>
@@ -2651,7 +2678,7 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="20"/>
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
@@ -2662,7 +2689,7 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="7"/>
       <c r="C158" s="22"/>
@@ -2673,7 +2700,7 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="20"/>
       <c r="B159" s="7"/>
       <c r="C159" s="22"/>
@@ -2684,7 +2711,7 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="20"/>
       <c r="B160" s="7"/>
       <c r="C160" s="22"/>
@@ -2695,7 +2722,7 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="20"/>
       <c r="B161" s="7"/>
       <c r="C161" s="22"/>
@@ -2706,7 +2733,7 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="7"/>
       <c r="C162" s="22"/>
@@ -2717,7 +2744,7 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="20"/>
       <c r="B163" s="7"/>
       <c r="C163" s="22"/>
@@ -2728,7 +2755,7 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="7"/>
       <c r="C164" s="22"/>
@@ -2739,7 +2766,7 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="20"/>
       <c r="B165" s="7"/>
       <c r="C165" s="22"/>
@@ -2750,7 +2777,7 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="7"/>
       <c r="C166" s="22"/>
@@ -2761,7 +2788,7 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="7"/>
       <c r="C167" s="22"/>
@@ -2772,7 +2799,7 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="20"/>
       <c r="B168" s="7"/>
       <c r="C168" s="22"/>
@@ -2783,7 +2810,7 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="20"/>
       <c r="B169" s="7"/>
       <c r="C169" s="22"/>
@@ -2794,7 +2821,7 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="7"/>
       <c r="C170" s="22"/>
@@ -2805,7 +2832,7 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="7"/>
       <c r="C171" s="22"/>
@@ -2816,7 +2843,7 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="20"/>
       <c r="B172" s="7"/>
       <c r="C172" s="22"/>
@@ -2827,7 +2854,7 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="7"/>
       <c r="C173" s="22"/>
@@ -2838,7 +2865,7 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="7"/>
       <c r="C174" s="22"/>
@@ -2849,7 +2876,7 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="7"/>
       <c r="C175" s="22"/>
@@ -2860,7 +2887,7 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="20"/>
       <c r="B176" s="7"/>
       <c r="C176" s="22"/>
@@ -2871,7 +2898,7 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="20"/>
       <c r="B177" s="7"/>
       <c r="C177" s="22"/>
@@ -2882,7 +2909,7 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="20"/>
       <c r="B178" s="7"/>
       <c r="C178" s="22"/>
@@ -2893,7 +2920,7 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="20"/>
       <c r="B179" s="7"/>
       <c r="C179" s="22"/>
@@ -2904,7 +2931,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="20"/>
       <c r="B180" s="7"/>
       <c r="C180" s="22"/>
@@ -2915,7 +2942,7 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="7"/>
       <c r="C181" s="22"/>
@@ -2926,7 +2953,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="20"/>
       <c r="B182" s="7"/>
       <c r="C182" s="22"/>
@@ -2937,7 +2964,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="20"/>
       <c r="B183" s="7"/>
       <c r="C183" s="22"/>
@@ -2948,7 +2975,7 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="20"/>
       <c r="B184" s="7"/>
       <c r="C184" s="22"/>
@@ -2959,7 +2986,7 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="20"/>
       <c r="B185" s="7"/>
       <c r="C185" s="22"/>
@@ -2970,7 +2997,7 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="20"/>
       <c r="B186" s="7"/>
       <c r="C186" s="22"/>
@@ -2981,7 +3008,7 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="7"/>
       <c r="C187" s="22"/>
@@ -2992,7 +3019,7 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="20"/>
       <c r="B188" s="7"/>
       <c r="C188" s="22"/>
@@ -3003,7 +3030,7 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="20"/>
       <c r="B189" s="7"/>
       <c r="C189" s="22"/>
@@ -3014,7 +3041,7 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="20"/>
       <c r="B190" s="7"/>
       <c r="C190" s="22"/>
@@ -3025,7 +3052,7 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="20"/>
       <c r="B191" s="7"/>
       <c r="C191" s="22"/>
@@ -3036,7 +3063,7 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="20"/>
       <c r="B192" s="7"/>
       <c r="C192" s="22"/>
@@ -3047,7 +3074,7 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="20"/>
       <c r="B193" s="7"/>
       <c r="C193" s="22"/>
@@ -3058,7 +3085,7 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="7"/>
       <c r="C194" s="22"/>
@@ -3069,7 +3096,7 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="20"/>
       <c r="B195" s="7"/>
       <c r="C195" s="22"/>
@@ -3080,7 +3107,7 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="20"/>
       <c r="B196" s="7"/>
       <c r="C196" s="22"/>
@@ -3091,7 +3118,7 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="7"/>
       <c r="C197" s="22"/>
@@ -3102,7 +3129,7 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="20"/>
       <c r="B198" s="7"/>
       <c r="C198" s="22"/>
@@ -3113,7 +3140,7 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="20"/>
       <c r="B199" s="7"/>
       <c r="C199" s="22"/>
@@ -3124,7 +3151,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="20"/>
       <c r="B200" s="7"/>
       <c r="C200" s="22"/>
@@ -3135,7 +3162,7 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="20"/>
       <c r="B201" s="7"/>
       <c r="C201" s="22"/>
@@ -3146,7 +3173,7 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="7"/>
       <c r="C202" s="22"/>
@@ -3157,7 +3184,7 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="20"/>
       <c r="B203" s="7"/>
       <c r="C203" s="22"/>
@@ -3168,7 +3195,7 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="20"/>
       <c r="B204" s="7"/>
       <c r="C204" s="22"/>
@@ -3179,7 +3206,7 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="20"/>
       <c r="B205" s="7"/>
       <c r="C205" s="22"/>
@@ -3190,7 +3217,7 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="20"/>
       <c r="B206" s="7"/>
       <c r="C206" s="22"/>
@@ -3201,7 +3228,7 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="20"/>
       <c r="B207" s="7"/>
       <c r="C207" s="22"/>
@@ -3212,7 +3239,7 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="20"/>
       <c r="B208" s="7"/>
       <c r="C208" s="22"/>
@@ -3223,7 +3250,7 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="20"/>
       <c r="B209" s="7"/>
       <c r="C209" s="22"/>
@@ -3234,7 +3261,7 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="20"/>
       <c r="B210" s="7"/>
       <c r="C210" s="22"/>
@@ -3245,7 +3272,7 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="20"/>
       <c r="B211" s="7"/>
       <c r="C211" s="22"/>
@@ -3256,7 +3283,7 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="7"/>
       <c r="C212" s="22"/>
@@ -3267,7 +3294,7 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="20"/>
       <c r="B213" s="7"/>
       <c r="C213" s="22"/>
@@ -3278,7 +3305,7 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="20"/>
       <c r="B214" s="7"/>
       <c r="C214" s="22"/>
@@ -3289,7 +3316,7 @@
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="20"/>
       <c r="B215" s="7"/>
       <c r="C215" s="22"/>
@@ -3300,7 +3327,7 @@
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="20"/>
       <c r="B216" s="7"/>
       <c r="C216" s="22"/>
@@ -3311,7 +3338,7 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="20"/>
       <c r="B217" s="7"/>
       <c r="C217" s="22"/>
@@ -3322,7 +3349,7 @@
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="20"/>
       <c r="B218" s="7"/>
       <c r="C218" s="22"/>
@@ -3333,7 +3360,7 @@
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="20"/>
       <c r="B219" s="7"/>
       <c r="C219" s="22"/>
@@ -3344,7 +3371,7 @@
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="20"/>
       <c r="B220" s="7"/>
       <c r="C220" s="22"/>
@@ -3355,7 +3382,7 @@
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="20"/>
       <c r="B221" s="7"/>
       <c r="C221" s="22"/>
@@ -3366,7 +3393,7 @@
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="20"/>
       <c r="B222" s="7"/>
       <c r="C222" s="22"/>
@@ -3377,7 +3404,7 @@
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="20"/>
       <c r="B223" s="7"/>
       <c r="C223" s="22"/>
@@ -3388,7 +3415,7 @@
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="20"/>
       <c r="B224" s="7"/>
       <c r="C224" s="22"/>
@@ -3399,7 +3426,7 @@
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="20"/>
       <c r="B225" s="7"/>
       <c r="C225" s="22"/>
@@ -3410,7 +3437,7 @@
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="20"/>
       <c r="B226" s="7"/>
       <c r="C226" s="22"/>
@@ -3421,7 +3448,7 @@
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="20"/>
       <c r="B227" s="7"/>
       <c r="C227" s="22"/>
@@ -3432,7 +3459,7 @@
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="20"/>
       <c r="B228" s="7"/>
       <c r="C228" s="22"/>
@@ -3443,7 +3470,7 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="20"/>
       <c r="B229" s="7"/>
       <c r="C229" s="22"/>
@@ -3454,7 +3481,7 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="20"/>
       <c r="B230" s="7"/>
       <c r="C230" s="22"/>
@@ -3465,7 +3492,7 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="20"/>
       <c r="B231" s="7"/>
       <c r="C231" s="22"/>
@@ -3476,7 +3503,7 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="20"/>
       <c r="B232" s="7"/>
       <c r="C232" s="22"/>
@@ -3487,7 +3514,7 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="20"/>
       <c r="B233" s="7"/>
       <c r="C233" s="22"/>
@@ -3498,7 +3525,7 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="20"/>
       <c r="B234" s="7"/>
       <c r="C234" s="22"/>
@@ -3509,7 +3536,7 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="20"/>
       <c r="B235" s="7"/>
       <c r="C235" s="22"/>
@@ -3520,7 +3547,7 @@
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="20"/>
       <c r="B236" s="7"/>
       <c r="C236" s="22"/>
@@ -3531,7 +3558,7 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="20"/>
       <c r="B237" s="7"/>
       <c r="C237" s="22"/>
@@ -3542,7 +3569,7 @@
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="20"/>
       <c r="B238" s="7"/>
       <c r="C238" s="22"/>
@@ -3553,7 +3580,7 @@
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="20"/>
       <c r="B239" s="7"/>
       <c r="C239" s="22"/>
@@ -3564,7 +3591,7 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="7"/>
       <c r="C240" s="22"/>
@@ -3575,7 +3602,7 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="20"/>
       <c r="B241" s="7"/>
       <c r="C241" s="22"/>
@@ -3586,7 +3613,7 @@
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="20"/>
       <c r="B242" s="7"/>
       <c r="C242" s="22"/>
@@ -3597,7 +3624,7 @@
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="20"/>
       <c r="B243" s="7"/>
       <c r="C243" s="22"/>
@@ -3608,7 +3635,7 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="20"/>
       <c r="B244" s="7"/>
       <c r="C244" s="22"/>
@@ -3619,7 +3646,7 @@
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="20"/>
       <c r="B245" s="7"/>
       <c r="C245" s="22"/>
@@ -3630,7 +3657,7 @@
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="20"/>
       <c r="B246" s="7"/>
       <c r="C246" s="22"/>
@@ -3641,7 +3668,7 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="20"/>
       <c r="B247" s="7"/>
       <c r="C247" s="22"/>
@@ -3652,7 +3679,7 @@
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="20"/>
       <c r="B248" s="7"/>
       <c r="C248" s="22"/>
@@ -3663,7 +3690,7 @@
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="20"/>
       <c r="B249" s="7"/>
       <c r="C249" s="22"/>
@@ -3674,7 +3701,7 @@
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="20"/>
       <c r="B250" s="7"/>
       <c r="C250" s="22"/>
@@ -3685,7 +3712,7 @@
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="20"/>
       <c r="B251" s="7"/>
       <c r="C251" s="22"/>
@@ -3696,7 +3723,7 @@
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="20"/>
       <c r="B252" s="7"/>
       <c r="C252" s="22"/>
@@ -3707,7 +3734,7 @@
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="20"/>
       <c r="B253" s="7"/>
       <c r="C253" s="22"/>
@@ -3718,7 +3745,7 @@
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="20"/>
       <c r="B254" s="7"/>
       <c r="C254" s="22"/>
@@ -3729,7 +3756,7 @@
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="20"/>
       <c r="B255" s="7"/>
       <c r="C255" s="22"/>
@@ -3740,7 +3767,7 @@
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="20"/>
       <c r="B256" s="7"/>
       <c r="C256" s="22"/>
@@ -3751,7 +3778,7 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="20"/>
       <c r="B257" s="7"/>
       <c r="C257" s="22"/>
@@ -3762,7 +3789,7 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="20"/>
       <c r="B258" s="7"/>
       <c r="C258" s="22"/>
@@ -3773,7 +3800,7 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="20"/>
       <c r="B259" s="7"/>
       <c r="C259" s="22"/>
@@ -3784,7 +3811,7 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="20"/>
       <c r="B260" s="7"/>
       <c r="C260" s="22"/>
@@ -3795,7 +3822,7 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="20"/>
       <c r="B261" s="7"/>
       <c r="C261" s="22"/>
@@ -3806,7 +3833,7 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="20"/>
       <c r="B262" s="7"/>
       <c r="C262" s="22"/>
@@ -3817,7 +3844,7 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="20"/>
       <c r="B263" s="7"/>
       <c r="C263" s="22"/>
@@ -3828,7 +3855,7 @@
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="20"/>
       <c r="B264" s="7"/>
       <c r="C264" s="22"/>
@@ -3839,7 +3866,7 @@
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="20"/>
       <c r="B265" s="7"/>
       <c r="C265" s="22"/>
@@ -3850,7 +3877,7 @@
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="20"/>
       <c r="B266" s="7"/>
       <c r="C266" s="22"/>
@@ -3861,7 +3888,7 @@
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="20"/>
       <c r="B267" s="7"/>
       <c r="C267" s="22"/>
@@ -3872,7 +3899,7 @@
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="20"/>
       <c r="B268" s="7"/>
       <c r="C268" s="22"/>
@@ -3883,7 +3910,7 @@
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="20"/>
       <c r="B269" s="7"/>
       <c r="C269" s="22"/>
@@ -3894,7 +3921,7 @@
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="20"/>
       <c r="B270" s="7"/>
       <c r="C270" s="22"/>
@@ -3905,7 +3932,7 @@
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="20"/>
       <c r="B271" s="7"/>
       <c r="C271" s="22"/>
@@ -3916,7 +3943,7 @@
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="20"/>
       <c r="B272" s="7"/>
       <c r="C272" s="22"/>
@@ -3927,7 +3954,7 @@
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="20"/>
       <c r="B273" s="7"/>
       <c r="C273" s="22"/>
@@ -3938,7 +3965,7 @@
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="20"/>
       <c r="B274" s="7"/>
       <c r="C274" s="22"/>
@@ -3949,7 +3976,7 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="20"/>
       <c r="B275" s="7"/>
       <c r="C275" s="22"/>
@@ -3960,7 +3987,7 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="20"/>
       <c r="B276" s="7"/>
       <c r="C276" s="22"/>
@@ -3971,7 +3998,7 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="20"/>
       <c r="B277" s="7"/>
       <c r="C277" s="22"/>
@@ -3982,7 +4009,7 @@
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="20"/>
       <c r="B278" s="7"/>
       <c r="C278" s="22"/>
@@ -3993,7 +4020,7 @@
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="20"/>
       <c r="B279" s="7"/>
       <c r="C279" s="22"/>
@@ -4004,7 +4031,7 @@
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="20"/>
       <c r="B280" s="7"/>
       <c r="C280" s="22"/>
@@ -4015,7 +4042,7 @@
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="20"/>
       <c r="B281" s="7"/>
       <c r="C281" s="22"/>
@@ -4026,7 +4053,7 @@
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="20"/>
       <c r="B282" s="7"/>
       <c r="C282" s="22"/>
@@ -4037,7 +4064,7 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="20"/>
       <c r="B283" s="7"/>
       <c r="C283" s="22"/>
@@ -4048,7 +4075,7 @@
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="20"/>
       <c r="B284" s="7"/>
       <c r="C284" s="22"/>
@@ -4059,7 +4086,7 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="20"/>
       <c r="B285" s="7"/>
       <c r="C285" s="22"/>
@@ -4070,7 +4097,7 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="20"/>
       <c r="B286" s="7"/>
       <c r="C286" s="22"/>
@@ -4081,7 +4108,7 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="20"/>
       <c r="B287" s="7"/>
       <c r="C287" s="22"/>
@@ -4092,7 +4119,7 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="20"/>
       <c r="B288" s="7"/>
       <c r="C288" s="22"/>
@@ -4103,7 +4130,7 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="20"/>
       <c r="B289" s="7"/>
       <c r="C289" s="22"/>
@@ -4114,7 +4141,7 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="20"/>
       <c r="B290" s="7"/>
       <c r="C290" s="22"/>
@@ -4125,7 +4152,7 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="20"/>
       <c r="B291" s="7"/>
       <c r="C291" s="22"/>
@@ -4136,7 +4163,7 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="20"/>
       <c r="B292" s="7"/>
       <c r="C292" s="22"/>
@@ -4147,7 +4174,7 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="20"/>
       <c r="B293" s="7"/>
       <c r="C293" s="22"/>
@@ -4158,7 +4185,7 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="20"/>
       <c r="B294" s="7"/>
       <c r="C294" s="22"/>
@@ -4169,7 +4196,7 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="20"/>
       <c r="B295" s="7"/>
       <c r="C295" s="22"/>
@@ -4180,7 +4207,7 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="20"/>
       <c r="B296" s="7"/>
       <c r="C296" s="22"/>
@@ -4191,7 +4218,7 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="20"/>
       <c r="B297" s="7"/>
       <c r="C297" s="22"/>
@@ -4202,7 +4229,7 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="20"/>
       <c r="B298" s="7"/>
       <c r="C298" s="22"/>
@@ -4213,7 +4240,7 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="20"/>
       <c r="B299" s="7"/>
       <c r="C299" s="22"/>
@@ -4224,7 +4251,7 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="20"/>
       <c r="B300" s="7"/>
       <c r="C300" s="22"/>
@@ -4235,7 +4262,7 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="20"/>
       <c r="B301" s="7"/>
       <c r="C301" s="22"/>
@@ -4246,7 +4273,7 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="20"/>
       <c r="B302" s="7"/>
       <c r="C302" s="22"/>
@@ -4257,7 +4284,7 @@
       <c r="H302" s="7"/>
       <c r="I302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="20"/>
       <c r="B303" s="7"/>
       <c r="C303" s="22"/>
@@ -4268,7 +4295,7 @@
       <c r="H303" s="7"/>
       <c r="I303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="20"/>
       <c r="B304" s="7"/>
       <c r="C304" s="22"/>
@@ -4279,7 +4306,7 @@
       <c r="H304" s="7"/>
       <c r="I304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="20"/>
       <c r="B305" s="7"/>
       <c r="C305" s="22"/>
@@ -4290,7 +4317,7 @@
       <c r="H305" s="7"/>
       <c r="I305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="20"/>
       <c r="B306" s="7"/>
       <c r="C306" s="22"/>
@@ -4301,7 +4328,7 @@
       <c r="H306" s="7"/>
       <c r="I306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="20"/>
       <c r="B307" s="7"/>
       <c r="C307" s="22"/>
@@ -4312,7 +4339,7 @@
       <c r="H307" s="7"/>
       <c r="I307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="20"/>
       <c r="B308" s="7"/>
       <c r="C308" s="22"/>
@@ -4323,7 +4350,7 @@
       <c r="H308" s="7"/>
       <c r="I308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="20"/>
       <c r="B309" s="7"/>
       <c r="C309" s="22"/>
@@ -4334,7 +4361,7 @@
       <c r="H309" s="7"/>
       <c r="I309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="20"/>
       <c r="B310" s="7"/>
       <c r="C310" s="22"/>
@@ -4345,7 +4372,7 @@
       <c r="H310" s="7"/>
       <c r="I310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="20"/>
       <c r="B311" s="7"/>
       <c r="C311" s="22"/>
@@ -4356,7 +4383,7 @@
       <c r="H311" s="7"/>
       <c r="I311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="7"/>
       <c r="C312" s="22"/>
@@ -4367,7 +4394,7 @@
       <c r="H312" s="7"/>
       <c r="I312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="20"/>
       <c r="B313" s="7"/>
       <c r="C313" s="22"/>
@@ -4378,7 +4405,7 @@
       <c r="H313" s="7"/>
       <c r="I313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="20"/>
       <c r="B314" s="7"/>
       <c r="C314" s="22"/>
@@ -4389,7 +4416,7 @@
       <c r="H314" s="7"/>
       <c r="I314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="20"/>
       <c r="B315" s="7"/>
       <c r="C315" s="22"/>
@@ -4400,7 +4427,7 @@
       <c r="H315" s="7"/>
       <c r="I315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="20"/>
       <c r="B316" s="7"/>
       <c r="C316" s="22"/>
@@ -4411,7 +4438,7 @@
       <c r="H316" s="7"/>
       <c r="I316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="20"/>
       <c r="B317" s="7"/>
       <c r="C317" s="22"/>
@@ -4422,7 +4449,7 @@
       <c r="H317" s="7"/>
       <c r="I317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="20"/>
       <c r="B318" s="7"/>
       <c r="C318" s="22"/>
@@ -4433,7 +4460,7 @@
       <c r="H318" s="7"/>
       <c r="I318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="20"/>
       <c r="B319" s="7"/>
       <c r="C319" s="22"/>
@@ -4444,7 +4471,7 @@
       <c r="H319" s="7"/>
       <c r="I319" s="7"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="20"/>
       <c r="B320" s="7"/>
       <c r="C320" s="22"/>
@@ -4455,7 +4482,7 @@
       <c r="H320" s="7"/>
       <c r="I320" s="7"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="20"/>
       <c r="B321" s="7"/>
       <c r="C321" s="22"/>
@@ -4466,7 +4493,7 @@
       <c r="H321" s="7"/>
       <c r="I321" s="7"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="20"/>
       <c r="B322" s="7"/>
       <c r="C322" s="22"/>
@@ -4477,7 +4504,7 @@
       <c r="H322" s="7"/>
       <c r="I322" s="7"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="20"/>
       <c r="B323" s="7"/>
       <c r="C323" s="22"/>
@@ -4488,7 +4515,7 @@
       <c r="H323" s="7"/>
       <c r="I323" s="7"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="20"/>
       <c r="B324" s="7"/>
       <c r="C324" s="22"/>
@@ -4499,7 +4526,7 @@
       <c r="H324" s="7"/>
       <c r="I324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="20"/>
       <c r="B325" s="7"/>
       <c r="C325" s="22"/>
@@ -4510,7 +4537,7 @@
       <c r="H325" s="7"/>
       <c r="I325" s="7"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="20"/>
       <c r="B326" s="7"/>
       <c r="C326" s="22"/>
@@ -4521,7 +4548,7 @@
       <c r="H326" s="7"/>
       <c r="I326" s="7"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="20"/>
       <c r="B327" s="7"/>
       <c r="C327" s="22"/>
@@ -4532,7 +4559,7 @@
       <c r="H327" s="7"/>
       <c r="I327" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="20"/>
       <c r="B328" s="7"/>
       <c r="C328" s="22"/>
@@ -4543,7 +4570,7 @@
       <c r="H328" s="7"/>
       <c r="I328" s="7"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="20"/>
       <c r="B329" s="7"/>
       <c r="C329" s="22"/>
@@ -4554,7 +4581,7 @@
       <c r="H329" s="7"/>
       <c r="I329" s="7"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="20"/>
       <c r="B330" s="7"/>
       <c r="C330" s="22"/>
@@ -4565,7 +4592,7 @@
       <c r="H330" s="7"/>
       <c r="I330" s="7"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="20"/>
       <c r="B331" s="7"/>
       <c r="C331" s="22"/>
@@ -4576,7 +4603,7 @@
       <c r="H331" s="7"/>
       <c r="I331" s="7"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="20"/>
       <c r="B332" s="7"/>
       <c r="C332" s="22"/>
@@ -4587,7 +4614,7 @@
       <c r="H332" s="7"/>
       <c r="I332" s="7"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="20"/>
       <c r="B333" s="7"/>
       <c r="C333" s="22"/>
@@ -4598,7 +4625,7 @@
       <c r="H333" s="7"/>
       <c r="I333" s="7"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="20"/>
       <c r="B334" s="7"/>
       <c r="C334" s="22"/>
@@ -4609,7 +4636,7 @@
       <c r="H334" s="7"/>
       <c r="I334" s="7"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="20"/>
       <c r="B335" s="7"/>
       <c r="C335" s="22"/>
@@ -4620,7 +4647,7 @@
       <c r="H335" s="7"/>
       <c r="I335" s="7"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="20"/>
       <c r="B336" s="7"/>
       <c r="C336" s="22"/>
@@ -4631,7 +4658,7 @@
       <c r="H336" s="7"/>
       <c r="I336" s="7"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="20"/>
       <c r="B337" s="7"/>
       <c r="C337" s="22"/>
@@ -4642,7 +4669,7 @@
       <c r="H337" s="7"/>
       <c r="I337" s="7"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="20"/>
       <c r="B338" s="7"/>
       <c r="C338" s="22"/>
@@ -4653,7 +4680,7 @@
       <c r="H338" s="7"/>
       <c r="I338" s="7"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="20"/>
       <c r="B339" s="7"/>
       <c r="C339" s="22"/>
@@ -4664,7 +4691,7 @@
       <c r="H339" s="7"/>
       <c r="I339" s="7"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="20"/>
       <c r="B340" s="7"/>
       <c r="C340" s="22"/>
@@ -4675,7 +4702,7 @@
       <c r="H340" s="7"/>
       <c r="I340" s="7"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="20"/>
       <c r="B341" s="7"/>
       <c r="C341" s="22"/>
@@ -4686,7 +4713,7 @@
       <c r="H341" s="7"/>
       <c r="I341" s="7"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="20"/>
       <c r="B342" s="7"/>
       <c r="C342" s="22"/>
@@ -4697,7 +4724,7 @@
       <c r="H342" s="7"/>
       <c r="I342" s="7"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="20"/>
       <c r="B343" s="7"/>
       <c r="C343" s="22"/>
@@ -4708,7 +4735,7 @@
       <c r="H343" s="7"/>
       <c r="I343" s="7"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="20"/>
       <c r="B344" s="7"/>
       <c r="C344" s="22"/>
@@ -4719,7 +4746,7 @@
       <c r="H344" s="7"/>
       <c r="I344" s="7"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="20"/>
       <c r="B345" s="7"/>
       <c r="C345" s="22"/>
@@ -4730,7 +4757,7 @@
       <c r="H345" s="7"/>
       <c r="I345" s="7"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="20"/>
       <c r="B346" s="7"/>
       <c r="C346" s="22"/>
@@ -4741,7 +4768,7 @@
       <c r="H346" s="7"/>
       <c r="I346" s="7"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="20"/>
       <c r="B347" s="7"/>
       <c r="C347" s="22"/>
@@ -4752,7 +4779,7 @@
       <c r="H347" s="7"/>
       <c r="I347" s="7"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="20"/>
       <c r="B348" s="7"/>
       <c r="C348" s="22"/>
@@ -4763,7 +4790,7 @@
       <c r="H348" s="7"/>
       <c r="I348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="20"/>
       <c r="B349" s="7"/>
       <c r="C349" s="22"/>
@@ -4774,7 +4801,7 @@
       <c r="H349" s="7"/>
       <c r="I349" s="7"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="20"/>
       <c r="B350" s="7"/>
       <c r="C350" s="22"/>
@@ -4785,7 +4812,7 @@
       <c r="H350" s="7"/>
       <c r="I350" s="7"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
       <c r="B351" s="7"/>
       <c r="C351" s="22"/>
@@ -4796,7 +4823,7 @@
       <c r="H351" s="7"/>
       <c r="I351" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
       <c r="B352" s="7"/>
       <c r="C352" s="22"/>
@@ -4807,7 +4834,7 @@
       <c r="H352" s="7"/>
       <c r="I352" s="7"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
       <c r="B353" s="7"/>
       <c r="C353" s="22"/>
@@ -4818,7 +4845,7 @@
       <c r="H353" s="7"/>
       <c r="I353" s="7"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="20"/>
       <c r="B354" s="7"/>
       <c r="C354" s="22"/>
@@ -4829,7 +4856,7 @@
       <c r="H354" s="7"/>
       <c r="I354" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="20"/>
       <c r="B355" s="7"/>
       <c r="C355" s="22"/>
@@ -4840,7 +4867,7 @@
       <c r="H355" s="7"/>
       <c r="I355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="20"/>
       <c r="B356" s="7"/>
       <c r="C356" s="22"/>
@@ -4851,7 +4878,7 @@
       <c r="H356" s="7"/>
       <c r="I356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="20"/>
       <c r="B357" s="7"/>
       <c r="C357" s="22"/>
@@ -4862,7 +4889,7 @@
       <c r="H357" s="7"/>
       <c r="I357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="20"/>
       <c r="B358" s="7"/>
       <c r="C358" s="22"/>
@@ -4873,7 +4900,7 @@
       <c r="H358" s="7"/>
       <c r="I358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
       <c r="B359" s="7"/>
       <c r="C359" s="22"/>
@@ -4884,7 +4911,7 @@
       <c r="H359" s="7"/>
       <c r="I359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="20"/>
       <c r="B360" s="7"/>
       <c r="C360" s="22"/>
@@ -4895,7 +4922,7 @@
       <c r="H360" s="7"/>
       <c r="I360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="20"/>
       <c r="B361" s="7"/>
       <c r="C361" s="22"/>
@@ -4906,7 +4933,7 @@
       <c r="H361" s="7"/>
       <c r="I361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="20"/>
       <c r="B362" s="7"/>
       <c r="C362" s="22"/>
@@ -4917,7 +4944,7 @@
       <c r="H362" s="7"/>
       <c r="I362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="20"/>
       <c r="B363" s="7"/>
       <c r="C363" s="22"/>
@@ -4928,7 +4955,7 @@
       <c r="H363" s="7"/>
       <c r="I363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="20"/>
       <c r="B364" s="7"/>
       <c r="C364" s="22"/>
@@ -4939,7 +4966,7 @@
       <c r="H364" s="7"/>
       <c r="I364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="20"/>
       <c r="B365" s="7"/>
       <c r="C365" s="22"/>
@@ -4950,7 +4977,7 @@
       <c r="H365" s="7"/>
       <c r="I365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="20"/>
       <c r="B366" s="7"/>
       <c r="C366" s="22"/>
@@ -4961,7 +4988,7 @@
       <c r="H366" s="7"/>
       <c r="I366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="20"/>
       <c r="B367" s="7"/>
       <c r="C367" s="22"/>
@@ -4972,7 +4999,7 @@
       <c r="H367" s="7"/>
       <c r="I367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="20"/>
       <c r="B368" s="7"/>
       <c r="C368" s="22"/>
@@ -4983,7 +5010,7 @@
       <c r="H368" s="7"/>
       <c r="I368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="20"/>
       <c r="B369" s="7"/>
       <c r="C369" s="22"/>
@@ -4994,7 +5021,7 @@
       <c r="H369" s="7"/>
       <c r="I369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="20"/>
       <c r="B370" s="7"/>
       <c r="C370" s="22"/>
@@ -5005,7 +5032,7 @@
       <c r="H370" s="7"/>
       <c r="I370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="20"/>
       <c r="B371" s="7"/>
       <c r="C371" s="22"/>
@@ -5016,7 +5043,7 @@
       <c r="H371" s="7"/>
       <c r="I371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="20"/>
       <c r="B372" s="7"/>
       <c r="C372" s="22"/>
@@ -5027,7 +5054,7 @@
       <c r="H372" s="7"/>
       <c r="I372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="20"/>
       <c r="B373" s="7"/>
       <c r="C373" s="22"/>
@@ -5038,7 +5065,7 @@
       <c r="H373" s="7"/>
       <c r="I373" s="7"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="20"/>
       <c r="B374" s="7"/>
       <c r="C374" s="22"/>
@@ -5049,7 +5076,7 @@
       <c r="H374" s="7"/>
       <c r="I374" s="7"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
       <c r="B375" s="7"/>
       <c r="C375" s="22"/>
@@ -5060,7 +5087,7 @@
       <c r="H375" s="7"/>
       <c r="I375" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
       <c r="B376" s="7"/>
       <c r="C376" s="22"/>
@@ -5071,7 +5098,7 @@
       <c r="H376" s="7"/>
       <c r="I376" s="7"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="20"/>
       <c r="B377" s="7"/>
       <c r="C377" s="22"/>
@@ -5082,7 +5109,7 @@
       <c r="H377" s="7"/>
       <c r="I377" s="7"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="20"/>
       <c r="B378" s="7"/>
       <c r="C378" s="22"/>
@@ -5093,7 +5120,7 @@
       <c r="H378" s="7"/>
       <c r="I378" s="7"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="20"/>
       <c r="B379" s="7"/>
       <c r="C379" s="22"/>
@@ -5104,7 +5131,7 @@
       <c r="H379" s="7"/>
       <c r="I379" s="7"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="20"/>
       <c r="B380" s="7"/>
       <c r="C380" s="22"/>
@@ -5115,7 +5142,7 @@
       <c r="H380" s="7"/>
       <c r="I380" s="7"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="20"/>
       <c r="B381" s="7"/>
       <c r="C381" s="22"/>
@@ -5126,7 +5153,7 @@
       <c r="H381" s="7"/>
       <c r="I381" s="7"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="20"/>
       <c r="B382" s="7"/>
       <c r="C382" s="22"/>
@@ -5137,7 +5164,7 @@
       <c r="H382" s="7"/>
       <c r="I382" s="7"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="20"/>
       <c r="B383" s="7"/>
       <c r="C383" s="22"/>
@@ -5148,7 +5175,7 @@
       <c r="H383" s="7"/>
       <c r="I383" s="7"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
       <c r="B384" s="7"/>
       <c r="C384" s="22"/>
@@ -5159,7 +5186,7 @@
       <c r="H384" s="7"/>
       <c r="I384" s="7"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
       <c r="B385" s="7"/>
       <c r="C385" s="22"/>
@@ -5170,7 +5197,7 @@
       <c r="H385" s="7"/>
       <c r="I385" s="7"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="20"/>
       <c r="B386" s="7"/>
       <c r="C386" s="22"/>
@@ -5181,7 +5208,7 @@
       <c r="H386" s="7"/>
       <c r="I386" s="7"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="20"/>
       <c r="B387" s="7"/>
       <c r="C387" s="22"/>
@@ -5192,7 +5219,7 @@
       <c r="H387" s="7"/>
       <c r="I387" s="7"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="20"/>
       <c r="B388" s="7"/>
       <c r="C388" s="22"/>
@@ -5203,7 +5230,7 @@
       <c r="H388" s="7"/>
       <c r="I388" s="7"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="20"/>
       <c r="B389" s="7"/>
       <c r="C389" s="22"/>
@@ -5214,7 +5241,7 @@
       <c r="H389" s="7"/>
       <c r="I389" s="7"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="20"/>
       <c r="B390" s="7"/>
       <c r="C390" s="22"/>
@@ -5225,7 +5252,7 @@
       <c r="H390" s="7"/>
       <c r="I390" s="7"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="20"/>
       <c r="B391" s="7"/>
       <c r="C391" s="22"/>
@@ -5236,7 +5263,7 @@
       <c r="H391" s="7"/>
       <c r="I391" s="7"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="20"/>
       <c r="B392" s="7"/>
       <c r="C392" s="22"/>
@@ -5247,7 +5274,7 @@
       <c r="H392" s="7"/>
       <c r="I392" s="7"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="20"/>
       <c r="B393" s="7"/>
       <c r="C393" s="22"/>
@@ -5258,7 +5285,7 @@
       <c r="H393" s="7"/>
       <c r="I393" s="7"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="20"/>
       <c r="B394" s="7"/>
       <c r="C394" s="22"/>
@@ -5269,7 +5296,7 @@
       <c r="H394" s="7"/>
       <c r="I394" s="7"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="20"/>
       <c r="B395" s="7"/>
       <c r="C395" s="22"/>
@@ -5280,7 +5307,7 @@
       <c r="H395" s="7"/>
       <c r="I395" s="7"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="20"/>
       <c r="B396" s="7"/>
       <c r="C396" s="22"/>
@@ -5291,7 +5318,7 @@
       <c r="H396" s="7"/>
       <c r="I396" s="7"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="20"/>
       <c r="B397" s="7"/>
       <c r="C397" s="22"/>
@@ -5302,7 +5329,7 @@
       <c r="H397" s="7"/>
       <c r="I397" s="7"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="20"/>
       <c r="B398" s="7"/>
       <c r="C398" s="22"/>
@@ -5313,7 +5340,7 @@
       <c r="H398" s="7"/>
       <c r="I398" s="7"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
       <c r="B399" s="7"/>
       <c r="C399" s="22"/>
@@ -5324,7 +5351,7 @@
       <c r="H399" s="7"/>
       <c r="I399" s="7"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="20"/>
       <c r="B400" s="7"/>
       <c r="C400" s="22"/>
@@ -5335,7 +5362,7 @@
       <c r="H400" s="7"/>
       <c r="I400" s="7"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="20"/>
       <c r="B401" s="7"/>
       <c r="C401" s="22"/>
@@ -5346,7 +5373,7 @@
       <c r="H401" s="7"/>
       <c r="I401" s="7"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="20"/>
       <c r="B402" s="7"/>
       <c r="C402" s="22"/>
@@ -5357,7 +5384,7 @@
       <c r="H402" s="7"/>
       <c r="I402" s="7"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="20"/>
       <c r="B403" s="7"/>
       <c r="C403" s="22"/>
@@ -5368,7 +5395,7 @@
       <c r="H403" s="7"/>
       <c r="I403" s="7"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="20"/>
       <c r="B404" s="7"/>
       <c r="C404" s="22"/>
@@ -5379,7 +5406,7 @@
       <c r="H404" s="7"/>
       <c r="I404" s="7"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="20"/>
       <c r="B405" s="7"/>
       <c r="C405" s="22"/>
@@ -5390,7 +5417,7 @@
       <c r="H405" s="7"/>
       <c r="I405" s="7"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="20"/>
       <c r="B406" s="7"/>
       <c r="C406" s="22"/>
@@ -5401,7 +5428,7 @@
       <c r="H406" s="7"/>
       <c r="I406" s="7"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="20"/>
       <c r="B407" s="7"/>
       <c r="C407" s="22"/>
@@ -5412,7 +5439,7 @@
       <c r="H407" s="7"/>
       <c r="I407" s="7"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="20"/>
       <c r="B408" s="7"/>
       <c r="C408" s="22"/>
@@ -5423,7 +5450,7 @@
       <c r="H408" s="7"/>
       <c r="I408" s="7"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="20"/>
       <c r="B409" s="7"/>
       <c r="C409" s="22"/>
@@ -5434,7 +5461,7 @@
       <c r="H409" s="7"/>
       <c r="I409" s="7"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="20"/>
       <c r="B410" s="7"/>
       <c r="C410" s="22"/>
@@ -5445,7 +5472,7 @@
       <c r="H410" s="7"/>
       <c r="I410" s="7"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="20"/>
       <c r="B411" s="7"/>
       <c r="C411" s="22"/>
@@ -5456,7 +5483,7 @@
       <c r="H411" s="7"/>
       <c r="I411" s="7"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="20"/>
       <c r="B412" s="7"/>
       <c r="C412" s="22"/>
@@ -5467,7 +5494,7 @@
       <c r="H412" s="7"/>
       <c r="I412" s="7"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="20"/>
       <c r="B413" s="7"/>
       <c r="C413" s="22"/>
@@ -5478,7 +5505,7 @@
       <c r="H413" s="7"/>
       <c r="I413" s="7"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="20"/>
       <c r="B414" s="7"/>
       <c r="C414" s="22"/>
@@ -5489,7 +5516,7 @@
       <c r="H414" s="7"/>
       <c r="I414" s="7"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="20"/>
       <c r="B415" s="7"/>
       <c r="C415" s="22"/>
@@ -5500,7 +5527,7 @@
       <c r="H415" s="7"/>
       <c r="I415" s="7"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="20"/>
       <c r="B416" s="7"/>
       <c r="C416" s="22"/>
@@ -5511,7 +5538,7 @@
       <c r="H416" s="7"/>
       <c r="I416" s="7"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="20"/>
       <c r="B417" s="7"/>
       <c r="C417" s="22"/>
@@ -5522,7 +5549,7 @@
       <c r="H417" s="7"/>
       <c r="I417" s="7"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
       <c r="B418" s="7"/>
       <c r="C418" s="22"/>
@@ -5533,7 +5560,7 @@
       <c r="H418" s="7"/>
       <c r="I418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
       <c r="B419" s="7"/>
       <c r="C419" s="22"/>
@@ -5544,7 +5571,7 @@
       <c r="H419" s="7"/>
       <c r="I419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
       <c r="B420" s="7"/>
       <c r="C420" s="22"/>
@@ -5555,7 +5582,7 @@
       <c r="H420" s="7"/>
       <c r="I420" s="7"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
       <c r="B421" s="7"/>
       <c r="C421" s="22"/>
@@ -5566,7 +5593,7 @@
       <c r="H421" s="7"/>
       <c r="I421" s="7"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="20"/>
       <c r="B422" s="7"/>
       <c r="C422" s="22"/>
@@ -5577,7 +5604,7 @@
       <c r="H422" s="7"/>
       <c r="I422" s="7"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="20"/>
       <c r="B423" s="7"/>
       <c r="C423" s="22"/>
@@ -5588,7 +5615,7 @@
       <c r="H423" s="7"/>
       <c r="I423" s="7"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="20"/>
       <c r="B424" s="7"/>
       <c r="C424" s="22"/>
@@ -5599,7 +5626,7 @@
       <c r="H424" s="7"/>
       <c r="I424" s="7"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
       <c r="B425" s="7"/>
       <c r="C425" s="22"/>
@@ -5610,7 +5637,7 @@
       <c r="H425" s="7"/>
       <c r="I425" s="7"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
       <c r="B426" s="7"/>
       <c r="C426" s="22"/>
@@ -5621,7 +5648,7 @@
       <c r="H426" s="7"/>
       <c r="I426" s="7"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="20"/>
       <c r="B427" s="7"/>
       <c r="C427" s="22"/>
@@ -5632,7 +5659,7 @@
       <c r="H427" s="7"/>
       <c r="I427" s="7"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
       <c r="B428" s="7"/>
       <c r="C428" s="22"/>
@@ -5643,7 +5670,7 @@
       <c r="H428" s="7"/>
       <c r="I428" s="7"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
       <c r="B429" s="7"/>
       <c r="C429" s="22"/>
@@ -5654,7 +5681,7 @@
       <c r="H429" s="7"/>
       <c r="I429" s="7"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
       <c r="B430" s="7"/>
       <c r="C430" s="22"/>
@@ -5665,7 +5692,7 @@
       <c r="H430" s="7"/>
       <c r="I430" s="7"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
       <c r="B431" s="7"/>
       <c r="C431" s="22"/>
@@ -5676,7 +5703,7 @@
       <c r="H431" s="7"/>
       <c r="I431" s="7"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="20"/>
       <c r="B432" s="7"/>
       <c r="C432" s="22"/>
@@ -5687,7 +5714,7 @@
       <c r="H432" s="7"/>
       <c r="I432" s="7"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="20"/>
       <c r="B433" s="7"/>
       <c r="C433" s="22"/>
@@ -5698,7 +5725,7 @@
       <c r="H433" s="7"/>
       <c r="I433" s="7"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="20"/>
       <c r="B434" s="7"/>
       <c r="C434" s="22"/>
@@ -5709,7 +5736,7 @@
       <c r="H434" s="7"/>
       <c r="I434" s="7"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="20"/>
       <c r="B435" s="7"/>
       <c r="C435" s="22"/>
@@ -5720,7 +5747,7 @@
       <c r="H435" s="7"/>
       <c r="I435" s="7"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="20"/>
       <c r="B436" s="7"/>
       <c r="C436" s="22"/>
@@ -5731,7 +5758,7 @@
       <c r="H436" s="7"/>
       <c r="I436" s="7"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="20"/>
       <c r="B437" s="7"/>
       <c r="C437" s="22"/>
@@ -5742,7 +5769,7 @@
       <c r="H437" s="7"/>
       <c r="I437" s="7"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="20"/>
       <c r="B438" s="7"/>
       <c r="C438" s="22"/>
@@ -5753,7 +5780,7 @@
       <c r="H438" s="7"/>
       <c r="I438" s="7"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="20"/>
       <c r="B439" s="7"/>
       <c r="C439" s="22"/>
@@ -5764,7 +5791,7 @@
       <c r="H439" s="7"/>
       <c r="I439" s="7"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="20"/>
       <c r="B440" s="7"/>
       <c r="C440" s="22"/>
@@ -5775,7 +5802,7 @@
       <c r="H440" s="7"/>
       <c r="I440" s="7"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="20"/>
       <c r="B441" s="7"/>
       <c r="C441" s="22"/>
@@ -5786,7 +5813,7 @@
       <c r="H441" s="7"/>
       <c r="I441" s="7"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="20"/>
       <c r="B442" s="7"/>
       <c r="C442" s="22"/>
@@ -5797,7 +5824,7 @@
       <c r="H442" s="7"/>
       <c r="I442" s="7"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="20"/>
       <c r="B443" s="7"/>
       <c r="C443" s="22"/>
@@ -5808,7 +5835,7 @@
       <c r="H443" s="7"/>
       <c r="I443" s="7"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="20"/>
       <c r="B444" s="7"/>
       <c r="C444" s="22"/>
@@ -5819,7 +5846,7 @@
       <c r="H444" s="7"/>
       <c r="I444" s="7"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="20"/>
       <c r="B445" s="7"/>
       <c r="C445" s="22"/>
@@ -5830,7 +5857,7 @@
       <c r="H445" s="7"/>
       <c r="I445" s="7"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="20"/>
       <c r="B446" s="7"/>
       <c r="C446" s="22"/>
@@ -5841,7 +5868,7 @@
       <c r="H446" s="7"/>
       <c r="I446" s="7"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="20"/>
       <c r="B447" s="7"/>
       <c r="C447" s="22"/>
@@ -5852,7 +5879,7 @@
       <c r="H447" s="7"/>
       <c r="I447" s="7"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="20"/>
       <c r="B448" s="7"/>
       <c r="C448" s="22"/>
@@ -5863,7 +5890,7 @@
       <c r="H448" s="7"/>
       <c r="I448" s="7"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="20"/>
       <c r="B449" s="7"/>
       <c r="C449" s="22"/>
@@ -5874,7 +5901,7 @@
       <c r="H449" s="7"/>
       <c r="I449" s="7"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="20"/>
       <c r="B450" s="7"/>
       <c r="C450" s="22"/>
@@ -5885,7 +5912,7 @@
       <c r="H450" s="7"/>
       <c r="I450" s="7"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="20"/>
       <c r="B451" s="7"/>
       <c r="C451" s="22"/>
@@ -5896,7 +5923,7 @@
       <c r="H451" s="7"/>
       <c r="I451" s="7"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="20"/>
       <c r="B452" s="7"/>
       <c r="C452" s="22"/>
@@ -5907,7 +5934,7 @@
       <c r="H452" s="7"/>
       <c r="I452" s="7"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="20"/>
       <c r="B453" s="7"/>
       <c r="C453" s="22"/>
@@ -5918,7 +5945,7 @@
       <c r="H453" s="7"/>
       <c r="I453" s="7"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="20"/>
       <c r="B454" s="7"/>
       <c r="C454" s="22"/>
@@ -5929,7 +5956,7 @@
       <c r="H454" s="7"/>
       <c r="I454" s="7"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="20"/>
       <c r="B455" s="7"/>
       <c r="C455" s="22"/>
@@ -5940,7 +5967,7 @@
       <c r="H455" s="7"/>
       <c r="I455" s="7"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="20"/>
       <c r="B456" s="7"/>
       <c r="C456" s="22"/>
@@ -5951,7 +5978,7 @@
       <c r="H456" s="7"/>
       <c r="I456" s="7"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="20"/>
       <c r="B457" s="7"/>
       <c r="C457" s="22"/>
@@ -5962,7 +5989,7 @@
       <c r="H457" s="7"/>
       <c r="I457" s="7"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="20"/>
       <c r="B458" s="7"/>
       <c r="C458" s="22"/>
@@ -5973,7 +6000,7 @@
       <c r="H458" s="7"/>
       <c r="I458" s="7"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="20"/>
       <c r="B459" s="7"/>
       <c r="C459" s="22"/>
@@ -5984,7 +6011,7 @@
       <c r="H459" s="7"/>
       <c r="I459" s="7"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="20"/>
       <c r="B460" s="7"/>
       <c r="C460" s="22"/>
@@ -5995,7 +6022,7 @@
       <c r="H460" s="7"/>
       <c r="I460" s="7"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="20"/>
       <c r="B461" s="7"/>
       <c r="C461" s="22"/>
@@ -6006,7 +6033,7 @@
       <c r="H461" s="7"/>
       <c r="I461" s="7"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="20"/>
       <c r="B462" s="7"/>
       <c r="C462" s="22"/>
@@ -6017,7 +6044,7 @@
       <c r="H462" s="7"/>
       <c r="I462" s="7"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="20"/>
       <c r="B463" s="7"/>
       <c r="C463" s="22"/>
@@ -6028,7 +6055,7 @@
       <c r="H463" s="7"/>
       <c r="I463" s="7"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="20"/>
       <c r="B464" s="7"/>
       <c r="C464" s="22"/>
@@ -6039,7 +6066,7 @@
       <c r="H464" s="7"/>
       <c r="I464" s="7"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="20"/>
       <c r="B465" s="7"/>
       <c r="C465" s="22"/>
@@ -6050,7 +6077,7 @@
       <c r="H465" s="7"/>
       <c r="I465" s="7"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="20"/>
       <c r="B466" s="7"/>
       <c r="C466" s="22"/>
@@ -6061,7 +6088,7 @@
       <c r="H466" s="7"/>
       <c r="I466" s="7"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="20"/>
       <c r="B467" s="7"/>
       <c r="C467" s="22"/>
@@ -6072,7 +6099,7 @@
       <c r="H467" s="7"/>
       <c r="I467" s="7"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="20"/>
       <c r="B468" s="7"/>
       <c r="C468" s="22"/>
@@ -6083,7 +6110,7 @@
       <c r="H468" s="7"/>
       <c r="I468" s="7"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="20"/>
       <c r="B469" s="7"/>
       <c r="C469" s="22"/>
@@ -6094,7 +6121,7 @@
       <c r="H469" s="7"/>
       <c r="I469" s="7"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="20"/>
       <c r="B470" s="7"/>
       <c r="C470" s="22"/>
@@ -6105,7 +6132,7 @@
       <c r="H470" s="7"/>
       <c r="I470" s="7"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="20"/>
       <c r="B471" s="7"/>
       <c r="C471" s="22"/>
@@ -6116,7 +6143,7 @@
       <c r="H471" s="7"/>
       <c r="I471" s="7"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="20"/>
       <c r="B472" s="7"/>
       <c r="C472" s="22"/>
@@ -6127,7 +6154,7 @@
       <c r="H472" s="7"/>
       <c r="I472" s="7"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="20"/>
       <c r="B473" s="7"/>
       <c r="C473" s="22"/>
@@ -6138,7 +6165,7 @@
       <c r="H473" s="7"/>
       <c r="I473" s="7"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="20"/>
       <c r="B474" s="7"/>
       <c r="C474" s="22"/>
@@ -6149,7 +6176,7 @@
       <c r="H474" s="7"/>
       <c r="I474" s="7"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="20"/>
       <c r="B475" s="7"/>
       <c r="C475" s="22"/>
@@ -6160,7 +6187,7 @@
       <c r="H475" s="7"/>
       <c r="I475" s="7"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="20"/>
       <c r="B476" s="7"/>
       <c r="C476" s="22"/>
@@ -6171,7 +6198,7 @@
       <c r="H476" s="7"/>
       <c r="I476" s="7"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="20"/>
       <c r="B477" s="7"/>
       <c r="C477" s="22"/>
@@ -6182,7 +6209,7 @@
       <c r="H477" s="7"/>
       <c r="I477" s="7"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="20"/>
       <c r="B478" s="7"/>
       <c r="C478" s="22"/>
@@ -6193,7 +6220,7 @@
       <c r="H478" s="7"/>
       <c r="I478" s="7"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="20"/>
       <c r="B479" s="7"/>
       <c r="C479" s="22"/>
@@ -6204,7 +6231,7 @@
       <c r="H479" s="7"/>
       <c r="I479" s="7"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="20"/>
       <c r="B480" s="7"/>
       <c r="C480" s="22"/>
@@ -6215,7 +6242,7 @@
       <c r="H480" s="7"/>
       <c r="I480" s="7"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="20"/>
       <c r="B481" s="7"/>
       <c r="C481" s="22"/>
@@ -6226,7 +6253,7 @@
       <c r="H481" s="7"/>
       <c r="I481" s="7"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="20"/>
       <c r="B482" s="7"/>
       <c r="C482" s="22"/>
@@ -6237,7 +6264,7 @@
       <c r="H482" s="7"/>
       <c r="I482" s="7"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="20"/>
       <c r="B483" s="7"/>
       <c r="C483" s="22"/>
@@ -6248,7 +6275,7 @@
       <c r="H483" s="7"/>
       <c r="I483" s="7"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="20"/>
       <c r="B484" s="7"/>
       <c r="C484" s="22"/>
@@ -6259,7 +6286,7 @@
       <c r="H484" s="7"/>
       <c r="I484" s="7"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="20"/>
       <c r="B485" s="7"/>
       <c r="C485" s="22"/>
@@ -6270,7 +6297,7 @@
       <c r="H485" s="7"/>
       <c r="I485" s="7"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="20"/>
       <c r="B486" s="7"/>
       <c r="C486" s="22"/>
@@ -6281,7 +6308,7 @@
       <c r="H486" s="7"/>
       <c r="I486" s="7"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="20"/>
       <c r="B487" s="7"/>
       <c r="C487" s="22"/>
@@ -6292,7 +6319,7 @@
       <c r="H487" s="7"/>
       <c r="I487" s="7"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="20"/>
       <c r="B488" s="7"/>
       <c r="C488" s="22"/>
@@ -6303,7 +6330,7 @@
       <c r="H488" s="7"/>
       <c r="I488" s="7"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="20"/>
       <c r="B489" s="7"/>
       <c r="C489" s="22"/>
@@ -6314,7 +6341,7 @@
       <c r="H489" s="7"/>
       <c r="I489" s="7"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="20"/>
       <c r="B490" s="7"/>
       <c r="C490" s="22"/>
@@ -6325,7 +6352,7 @@
       <c r="H490" s="7"/>
       <c r="I490" s="7"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="20"/>
       <c r="B491" s="7"/>
       <c r="C491" s="22"/>
@@ -6336,7 +6363,7 @@
       <c r="H491" s="7"/>
       <c r="I491" s="7"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="20"/>
       <c r="B492" s="7"/>
       <c r="C492" s="22"/>
@@ -6347,7 +6374,7 @@
       <c r="H492" s="7"/>
       <c r="I492" s="7"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="20"/>
       <c r="B493" s="7"/>
       <c r="C493" s="22"/>
@@ -6358,7 +6385,7 @@
       <c r="H493" s="7"/>
       <c r="I493" s="7"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="20"/>
       <c r="B494" s="7"/>
       <c r="C494" s="22"/>
@@ -6369,7 +6396,7 @@
       <c r="H494" s="7"/>
       <c r="I494" s="7"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="20"/>
       <c r="B495" s="7"/>
       <c r="C495" s="22"/>
@@ -6380,7 +6407,7 @@
       <c r="H495" s="7"/>
       <c r="I495" s="7"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="20"/>
       <c r="B496" s="7"/>
       <c r="C496" s="22"/>
@@ -6391,7 +6418,7 @@
       <c r="H496" s="7"/>
       <c r="I496" s="7"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="20"/>
       <c r="B497" s="7"/>
       <c r="C497" s="22"/>
@@ -6402,7 +6429,7 @@
       <c r="H497" s="7"/>
       <c r="I497" s="7"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="20"/>
       <c r="B498" s="7"/>
       <c r="C498" s="22"/>
@@ -6413,7 +6440,7 @@
       <c r="H498" s="7"/>
       <c r="I498" s="7"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="20"/>
       <c r="B499" s="7"/>
       <c r="C499" s="22"/>
@@ -6424,7 +6451,7 @@
       <c r="H499" s="7"/>
       <c r="I499" s="7"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="20"/>
       <c r="B500" s="7"/>
       <c r="C500" s="22"/>
@@ -6435,7 +6462,7 @@
       <c r="H500" s="7"/>
       <c r="I500" s="7"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="20"/>
       <c r="B501" s="7"/>
       <c r="C501" s="22"/>
@@ -6446,7 +6473,7 @@
       <c r="H501" s="7"/>
       <c r="I501" s="7"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" s="20"/>
       <c r="B502" s="7"/>
       <c r="C502" s="22"/>
@@ -6457,7 +6484,7 @@
       <c r="H502" s="7"/>
       <c r="I502" s="7"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" s="20"/>
       <c r="B503" s="7"/>
       <c r="C503" s="22"/>
@@ -6468,7 +6495,7 @@
       <c r="H503" s="7"/>
       <c r="I503" s="7"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504" s="20"/>
       <c r="B504" s="7"/>
       <c r="C504" s="22"/>
@@ -6479,7 +6506,7 @@
       <c r="H504" s="7"/>
       <c r="I504" s="7"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505" s="20"/>
       <c r="B505" s="7"/>
       <c r="C505" s="22"/>
@@ -6490,7 +6517,7 @@
       <c r="H505" s="7"/>
       <c r="I505" s="7"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506" s="20"/>
       <c r="B506" s="7"/>
       <c r="C506" s="22"/>
@@ -6501,7 +6528,7 @@
       <c r="H506" s="7"/>
       <c r="I506" s="7"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" s="20"/>
       <c r="B507" s="7"/>
       <c r="C507" s="22"/>
@@ -6512,7 +6539,7 @@
       <c r="H507" s="7"/>
       <c r="I507" s="7"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508" s="20"/>
       <c r="B508" s="7"/>
       <c r="C508" s="22"/>
@@ -6523,7 +6550,7 @@
       <c r="H508" s="7"/>
       <c r="I508" s="7"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509" s="20"/>
       <c r="B509" s="7"/>
       <c r="C509" s="22"/>
@@ -6534,7 +6561,7 @@
       <c r="H509" s="7"/>
       <c r="I509" s="7"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" s="20"/>
       <c r="B510" s="7"/>
       <c r="C510" s="22"/>
@@ -6545,7 +6572,7 @@
       <c r="H510" s="7"/>
       <c r="I510" s="7"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" s="20"/>
       <c r="B511" s="7"/>
       <c r="C511" s="22"/>
@@ -6556,7 +6583,7 @@
       <c r="H511" s="7"/>
       <c r="I511" s="7"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" s="20"/>
       <c r="B512" s="7"/>
       <c r="C512" s="22"/>
@@ -6567,7 +6594,7 @@
       <c r="H512" s="7"/>
       <c r="I512" s="7"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" s="20"/>
       <c r="B513" s="7"/>
       <c r="C513" s="22"/>
@@ -6578,7 +6605,7 @@
       <c r="H513" s="7"/>
       <c r="I513" s="7"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" s="20"/>
       <c r="B514" s="7"/>
       <c r="C514" s="22"/>
@@ -6589,7 +6616,7 @@
       <c r="H514" s="7"/>
       <c r="I514" s="7"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" s="20"/>
       <c r="B515" s="7"/>
       <c r="C515" s="22"/>
@@ -6600,7 +6627,7 @@
       <c r="H515" s="7"/>
       <c r="I515" s="7"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" s="20"/>
       <c r="B516" s="7"/>
       <c r="C516" s="22"/>
@@ -6611,7 +6638,7 @@
       <c r="H516" s="7"/>
       <c r="I516" s="7"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" s="20"/>
       <c r="B517" s="7"/>
       <c r="C517" s="22"/>
@@ -6622,7 +6649,7 @@
       <c r="H517" s="7"/>
       <c r="I517" s="7"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" s="20"/>
       <c r="B518" s="7"/>
       <c r="C518" s="22"/>
@@ -6633,7 +6660,7 @@
       <c r="H518" s="7"/>
       <c r="I518" s="7"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" s="20"/>
       <c r="B519" s="7"/>
       <c r="C519" s="22"/>
@@ -6644,7 +6671,7 @@
       <c r="H519" s="7"/>
       <c r="I519" s="7"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520" s="20"/>
       <c r="B520" s="7"/>
       <c r="C520" s="22"/>
@@ -6655,7 +6682,7 @@
       <c r="H520" s="7"/>
       <c r="I520" s="7"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521" s="20"/>
       <c r="B521" s="7"/>
       <c r="C521" s="22"/>
@@ -6666,7 +6693,7 @@
       <c r="H521" s="7"/>
       <c r="I521" s="7"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522" s="20"/>
       <c r="B522" s="7"/>
       <c r="C522" s="22"/>
@@ -6677,7 +6704,7 @@
       <c r="H522" s="7"/>
       <c r="I522" s="7"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523" s="20"/>
       <c r="B523" s="7"/>
       <c r="C523" s="22"/>
@@ -6688,7 +6715,7 @@
       <c r="H523" s="7"/>
       <c r="I523" s="7"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524" s="20"/>
       <c r="B524" s="7"/>
       <c r="C524" s="22"/>
@@ -6699,7 +6726,7 @@
       <c r="H524" s="7"/>
       <c r="I524" s="7"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525" s="20"/>
       <c r="B525" s="7"/>
       <c r="C525" s="22"/>
@@ -6710,7 +6737,7 @@
       <c r="H525" s="7"/>
       <c r="I525" s="7"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526" s="20"/>
       <c r="B526" s="7"/>
       <c r="C526" s="22"/>
@@ -6721,7 +6748,7 @@
       <c r="H526" s="7"/>
       <c r="I526" s="7"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527" s="20"/>
       <c r="B527" s="7"/>
       <c r="C527" s="22"/>
@@ -6732,7 +6759,7 @@
       <c r="H527" s="7"/>
       <c r="I527" s="7"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528" s="20"/>
       <c r="B528" s="7"/>
       <c r="C528" s="22"/>
@@ -6743,7 +6770,7 @@
       <c r="H528" s="7"/>
       <c r="I528" s="7"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529" s="20"/>
       <c r="B529" s="7"/>
       <c r="C529" s="22"/>
@@ -6754,7 +6781,7 @@
       <c r="H529" s="7"/>
       <c r="I529" s="7"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" s="20"/>
       <c r="B530" s="7"/>
       <c r="C530" s="22"/>
@@ -6765,7 +6792,7 @@
       <c r="H530" s="7"/>
       <c r="I530" s="7"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" s="20"/>
       <c r="B531" s="7"/>
       <c r="C531" s="22"/>
@@ -6776,7 +6803,7 @@
       <c r="H531" s="7"/>
       <c r="I531" s="7"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
       <c r="B532" s="7"/>
       <c r="C532" s="22"/>
@@ -6787,7 +6814,7 @@
       <c r="H532" s="7"/>
       <c r="I532" s="7"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" s="20"/>
       <c r="B533" s="7"/>
       <c r="C533" s="22"/>
@@ -6798,7 +6825,7 @@
       <c r="H533" s="7"/>
       <c r="I533" s="7"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" s="20"/>
       <c r="B534" s="7"/>
       <c r="C534" s="22"/>
@@ -6809,7 +6836,7 @@
       <c r="H534" s="7"/>
       <c r="I534" s="7"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535" s="20"/>
       <c r="B535" s="7"/>
       <c r="C535" s="22"/>
@@ -6820,7 +6847,7 @@
       <c r="H535" s="7"/>
       <c r="I535" s="7"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536" s="20"/>
       <c r="B536" s="7"/>
       <c r="C536" s="22"/>
@@ -6831,7 +6858,7 @@
       <c r="H536" s="7"/>
       <c r="I536" s="7"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537" s="20"/>
       <c r="B537" s="7"/>
       <c r="C537" s="22"/>
@@ -6842,7 +6869,7 @@
       <c r="H537" s="7"/>
       <c r="I537" s="7"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" s="20"/>
       <c r="B538" s="7"/>
       <c r="C538" s="22"/>
@@ -6853,7 +6880,7 @@
       <c r="H538" s="7"/>
       <c r="I538" s="7"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" s="20"/>
       <c r="B539" s="7"/>
       <c r="C539" s="22"/>
@@ -6864,7 +6891,7 @@
       <c r="H539" s="7"/>
       <c r="I539" s="7"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" s="20"/>
       <c r="B540" s="7"/>
       <c r="C540" s="22"/>
@@ -6875,7 +6902,7 @@
       <c r="H540" s="7"/>
       <c r="I540" s="7"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541" s="20"/>
       <c r="B541" s="7"/>
       <c r="C541" s="22"/>
@@ -6886,7 +6913,7 @@
       <c r="H541" s="7"/>
       <c r="I541" s="7"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542" s="20"/>
       <c r="B542" s="7"/>
       <c r="C542" s="22"/>
@@ -6897,7 +6924,7 @@
       <c r="H542" s="7"/>
       <c r="I542" s="7"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543" s="20"/>
       <c r="B543" s="7"/>
       <c r="C543" s="22"/>
@@ -6908,7 +6935,7 @@
       <c r="H543" s="7"/>
       <c r="I543" s="7"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" s="20"/>
       <c r="B544" s="7"/>
       <c r="C544" s="22"/>
@@ -6919,7 +6946,7 @@
       <c r="H544" s="7"/>
       <c r="I544" s="7"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" s="20"/>
       <c r="B545" s="7"/>
       <c r="C545" s="22"/>
@@ -6930,7 +6957,7 @@
       <c r="H545" s="7"/>
       <c r="I545" s="7"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" s="20"/>
       <c r="B546" s="7"/>
       <c r="C546" s="22"/>
@@ -6941,7 +6968,7 @@
       <c r="H546" s="7"/>
       <c r="I546" s="7"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" s="20"/>
       <c r="B547" s="7"/>
       <c r="C547" s="22"/>
@@ -6952,7 +6979,7 @@
       <c r="H547" s="7"/>
       <c r="I547" s="7"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548" s="20"/>
       <c r="B548" s="7"/>
       <c r="C548" s="22"/>
@@ -6963,7 +6990,7 @@
       <c r="H548" s="7"/>
       <c r="I548" s="7"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" s="20"/>
       <c r="B549" s="7"/>
       <c r="C549" s="22"/>
@@ -6974,7 +7001,7 @@
       <c r="H549" s="7"/>
       <c r="I549" s="7"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550" s="20"/>
       <c r="B550" s="7"/>
       <c r="C550" s="22"/>
@@ -6985,7 +7012,7 @@
       <c r="H550" s="7"/>
       <c r="I550" s="7"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551" s="20"/>
       <c r="B551" s="7"/>
       <c r="C551" s="22"/>
@@ -6996,7 +7023,7 @@
       <c r="H551" s="7"/>
       <c r="I551" s="7"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" s="20"/>
       <c r="B552" s="7"/>
       <c r="C552" s="22"/>
@@ -7007,7 +7034,7 @@
       <c r="H552" s="7"/>
       <c r="I552" s="7"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" s="20"/>
       <c r="B553" s="7"/>
       <c r="C553" s="22"/>
@@ -7018,7 +7045,7 @@
       <c r="H553" s="7"/>
       <c r="I553" s="7"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554" s="20"/>
       <c r="B554" s="7"/>
       <c r="C554" s="22"/>
@@ -7029,7 +7056,7 @@
       <c r="H554" s="7"/>
       <c r="I554" s="7"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555" s="20"/>
       <c r="B555" s="7"/>
       <c r="C555" s="22"/>
@@ -7040,7 +7067,7 @@
       <c r="H555" s="7"/>
       <c r="I555" s="7"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556" s="20"/>
       <c r="B556" s="7"/>
       <c r="C556" s="22"/>
@@ -7051,7 +7078,7 @@
       <c r="H556" s="7"/>
       <c r="I556" s="7"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557" s="20"/>
       <c r="B557" s="7"/>
       <c r="C557" s="22"/>
@@ -7062,7 +7089,7 @@
       <c r="H557" s="7"/>
       <c r="I557" s="7"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558" s="20"/>
       <c r="B558" s="7"/>
       <c r="C558" s="22"/>
@@ -7073,7 +7100,7 @@
       <c r="H558" s="7"/>
       <c r="I558" s="7"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559" s="20"/>
       <c r="B559" s="7"/>
       <c r="C559" s="22"/>
@@ -7084,7 +7111,7 @@
       <c r="H559" s="7"/>
       <c r="I559" s="7"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" s="20"/>
       <c r="B560" s="7"/>
       <c r="C560" s="22"/>
@@ -7095,7 +7122,7 @@
       <c r="H560" s="7"/>
       <c r="I560" s="7"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" s="20"/>
       <c r="B561" s="7"/>
       <c r="C561" s="22"/>
@@ -7106,7 +7133,7 @@
       <c r="H561" s="7"/>
       <c r="I561" s="7"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" s="20"/>
       <c r="B562" s="7"/>
       <c r="C562" s="22"/>
@@ -7117,7 +7144,7 @@
       <c r="H562" s="7"/>
       <c r="I562" s="7"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" s="20"/>
       <c r="B563" s="7"/>
       <c r="C563" s="22"/>
@@ -7128,7 +7155,7 @@
       <c r="H563" s="7"/>
       <c r="I563" s="7"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" s="20"/>
       <c r="B564" s="7"/>
       <c r="C564" s="22"/>
@@ -7139,7 +7166,7 @@
       <c r="H564" s="7"/>
       <c r="I564" s="7"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" s="20"/>
       <c r="B565" s="7"/>
       <c r="C565" s="22"/>
@@ -7150,7 +7177,7 @@
       <c r="H565" s="7"/>
       <c r="I565" s="7"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" s="20"/>
       <c r="B566" s="7"/>
       <c r="C566" s="22"/>
@@ -7161,7 +7188,7 @@
       <c r="H566" s="7"/>
       <c r="I566" s="7"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567" s="20"/>
       <c r="B567" s="7"/>
       <c r="C567" s="22"/>
@@ -7172,7 +7199,7 @@
       <c r="H567" s="7"/>
       <c r="I567" s="7"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" s="20"/>
       <c r="B568" s="7"/>
       <c r="C568" s="22"/>
@@ -7183,7 +7210,7 @@
       <c r="H568" s="7"/>
       <c r="I568" s="7"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" s="20"/>
       <c r="B569" s="7"/>
       <c r="C569" s="22"/>
@@ -7194,7 +7221,7 @@
       <c r="H569" s="7"/>
       <c r="I569" s="7"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" s="20"/>
       <c r="B570" s="7"/>
       <c r="C570" s="22"/>
@@ -7205,7 +7232,7 @@
       <c r="H570" s="7"/>
       <c r="I570" s="7"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571" s="20"/>
       <c r="B571" s="7"/>
       <c r="C571" s="22"/>
@@ -7216,7 +7243,7 @@
       <c r="H571" s="7"/>
       <c r="I571" s="7"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572" s="20"/>
       <c r="B572" s="7"/>
       <c r="C572" s="22"/>
@@ -7227,7 +7254,7 @@
       <c r="H572" s="7"/>
       <c r="I572" s="7"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573" s="20"/>
       <c r="B573" s="7"/>
       <c r="C573" s="22"/>
@@ -7238,7 +7265,7 @@
       <c r="H573" s="7"/>
       <c r="I573" s="7"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" s="20"/>
       <c r="B574" s="7"/>
       <c r="C574" s="22"/>
@@ -7249,7 +7276,7 @@
       <c r="H574" s="7"/>
       <c r="I574" s="7"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" s="20"/>
       <c r="B575" s="7"/>
       <c r="C575" s="22"/>
@@ -7260,7 +7287,7 @@
       <c r="H575" s="7"/>
       <c r="I575" s="7"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" s="20"/>
       <c r="B576" s="7"/>
       <c r="C576" s="22"/>
@@ -7271,7 +7298,7 @@
       <c r="H576" s="7"/>
       <c r="I576" s="7"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" s="20"/>
       <c r="B577" s="7"/>
       <c r="C577" s="22"/>
@@ -7282,7 +7309,7 @@
       <c r="H577" s="7"/>
       <c r="I577" s="7"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" s="20"/>
       <c r="B578" s="7"/>
       <c r="C578" s="22"/>
@@ -7293,7 +7320,7 @@
       <c r="H578" s="7"/>
       <c r="I578" s="7"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" s="20"/>
       <c r="B579" s="7"/>
       <c r="C579" s="22"/>
@@ -7304,7 +7331,7 @@
       <c r="H579" s="7"/>
       <c r="I579" s="7"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" s="20"/>
       <c r="B580" s="7"/>
       <c r="C580" s="22"/>
@@ -7315,7 +7342,7 @@
       <c r="H580" s="7"/>
       <c r="I580" s="7"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" s="20"/>
       <c r="B581" s="7"/>
       <c r="C581" s="22"/>
@@ -7326,7 +7353,7 @@
       <c r="H581" s="7"/>
       <c r="I581" s="7"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" s="20"/>
       <c r="B582" s="7"/>
       <c r="C582" s="22"/>
@@ -7337,7 +7364,7 @@
       <c r="H582" s="7"/>
       <c r="I582" s="7"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583" s="20"/>
       <c r="B583" s="7"/>
       <c r="C583" s="22"/>
@@ -7348,7 +7375,7 @@
       <c r="H583" s="7"/>
       <c r="I583" s="7"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584" s="20"/>
       <c r="B584" s="7"/>
       <c r="C584" s="22"/>
@@ -7359,7 +7386,7 @@
       <c r="H584" s="7"/>
       <c r="I584" s="7"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585" s="20"/>
       <c r="B585" s="7"/>
       <c r="C585" s="22"/>
@@ -7370,7 +7397,7 @@
       <c r="H585" s="7"/>
       <c r="I585" s="7"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" s="20"/>
       <c r="B586" s="7"/>
       <c r="C586" s="22"/>
@@ -7381,7 +7408,7 @@
       <c r="H586" s="7"/>
       <c r="I586" s="7"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" s="20"/>
       <c r="B587" s="7"/>
       <c r="C587" s="22"/>
@@ -7392,7 +7419,7 @@
       <c r="H587" s="7"/>
       <c r="I587" s="7"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" s="20"/>
       <c r="B588" s="7"/>
       <c r="C588" s="22"/>
@@ -7403,7 +7430,7 @@
       <c r="H588" s="7"/>
       <c r="I588" s="7"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" s="20"/>
       <c r="B589" s="7"/>
       <c r="C589" s="22"/>
@@ -7414,7 +7441,7 @@
       <c r="H589" s="7"/>
       <c r="I589" s="7"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590" s="20"/>
       <c r="B590" s="7"/>
       <c r="C590" s="22"/>
@@ -7425,7 +7452,7 @@
       <c r="H590" s="7"/>
       <c r="I590" s="7"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" s="20"/>
       <c r="B591" s="7"/>
       <c r="C591" s="22"/>
@@ -7436,7 +7463,7 @@
       <c r="H591" s="7"/>
       <c r="I591" s="7"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" s="20"/>
       <c r="B592" s="7"/>
       <c r="C592" s="22"/>
@@ -7447,7 +7474,7 @@
       <c r="H592" s="7"/>
       <c r="I592" s="7"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" s="20"/>
       <c r="B593" s="7"/>
       <c r="C593" s="22"/>
@@ -7458,7 +7485,7 @@
       <c r="H593" s="7"/>
       <c r="I593" s="7"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" s="20"/>
       <c r="B594" s="7"/>
       <c r="C594" s="22"/>
@@ -7469,7 +7496,7 @@
       <c r="H594" s="7"/>
       <c r="I594" s="7"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595" s="20"/>
       <c r="B595" s="7"/>
       <c r="C595" s="22"/>
@@ -7480,7 +7507,7 @@
       <c r="H595" s="7"/>
       <c r="I595" s="7"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596" s="20"/>
       <c r="B596" s="7"/>
       <c r="C596" s="22"/>
@@ -7491,7 +7518,7 @@
       <c r="H596" s="7"/>
       <c r="I596" s="7"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597" s="20"/>
       <c r="B597" s="7"/>
       <c r="C597" s="22"/>
@@ -7502,7 +7529,7 @@
       <c r="H597" s="7"/>
       <c r="I597" s="7"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" s="20"/>
       <c r="B598" s="7"/>
       <c r="C598" s="22"/>
@@ -7513,7 +7540,7 @@
       <c r="H598" s="7"/>
       <c r="I598" s="7"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" s="20"/>
       <c r="B599" s="7"/>
       <c r="C599" s="22"/>
@@ -7524,7 +7551,7 @@
       <c r="H599" s="7"/>
       <c r="I599" s="7"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600" s="20"/>
       <c r="B600" s="7"/>
       <c r="C600" s="22"/>
@@ -7535,7 +7562,7 @@
       <c r="H600" s="7"/>
       <c r="I600" s="7"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" s="20"/>
       <c r="B601" s="7"/>
       <c r="C601" s="22"/>
@@ -7546,7 +7573,7 @@
       <c r="H601" s="7"/>
       <c r="I601" s="7"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" s="20"/>
       <c r="B602" s="7"/>
       <c r="C602" s="22"/>
@@ -7557,7 +7584,7 @@
       <c r="H602" s="7"/>
       <c r="I602" s="7"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" s="20"/>
       <c r="B603" s="7"/>
       <c r="C603" s="22"/>
@@ -7568,7 +7595,7 @@
       <c r="H603" s="7"/>
       <c r="I603" s="7"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" s="20"/>
       <c r="B604" s="7"/>
       <c r="C604" s="22"/>
@@ -7579,7 +7606,7 @@
       <c r="H604" s="7"/>
       <c r="I604" s="7"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605" s="20"/>
       <c r="B605" s="7"/>
       <c r="C605" s="22"/>
@@ -7590,7 +7617,7 @@
       <c r="H605" s="7"/>
       <c r="I605" s="7"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" s="20"/>
       <c r="B606" s="7"/>
       <c r="C606" s="22"/>
@@ -7601,7 +7628,7 @@
       <c r="H606" s="7"/>
       <c r="I606" s="7"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" s="20"/>
       <c r="B607" s="7"/>
       <c r="C607" s="22"/>
@@ -7612,7 +7639,7 @@
       <c r="H607" s="7"/>
       <c r="I607" s="7"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" s="20"/>
       <c r="B608" s="7"/>
       <c r="C608" s="22"/>
@@ -7623,7 +7650,7 @@
       <c r="H608" s="7"/>
       <c r="I608" s="7"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" s="20"/>
       <c r="B609" s="7"/>
       <c r="C609" s="22"/>
@@ -7634,7 +7661,7 @@
       <c r="H609" s="7"/>
       <c r="I609" s="7"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" s="20"/>
       <c r="B610" s="7"/>
       <c r="C610" s="22"/>
@@ -7645,7 +7672,7 @@
       <c r="H610" s="7"/>
       <c r="I610" s="7"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611" s="20"/>
       <c r="B611" s="7"/>
       <c r="C611" s="22"/>
@@ -7656,7 +7683,7 @@
       <c r="H611" s="7"/>
       <c r="I611" s="7"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612" s="20"/>
       <c r="B612" s="7"/>
       <c r="C612" s="22"/>
@@ -7667,7 +7694,7 @@
       <c r="H612" s="7"/>
       <c r="I612" s="7"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" s="20"/>
       <c r="B613" s="7"/>
       <c r="C613" s="22"/>
@@ -7678,7 +7705,7 @@
       <c r="H613" s="7"/>
       <c r="I613" s="7"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" s="20"/>
       <c r="B614" s="7"/>
       <c r="C614" s="22"/>
@@ -7689,7 +7716,7 @@
       <c r="H614" s="7"/>
       <c r="I614" s="7"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615" s="20"/>
       <c r="B615" s="7"/>
       <c r="C615" s="22"/>
@@ -7700,7 +7727,7 @@
       <c r="H615" s="7"/>
       <c r="I615" s="7"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616" s="20"/>
       <c r="B616" s="7"/>
       <c r="C616" s="22"/>
@@ -7711,7 +7738,7 @@
       <c r="H616" s="7"/>
       <c r="I616" s="7"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617" s="20"/>
       <c r="B617" s="7"/>
       <c r="C617" s="22"/>
@@ -7722,7 +7749,7 @@
       <c r="H617" s="7"/>
       <c r="I617" s="7"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618" s="20"/>
       <c r="B618" s="7"/>
       <c r="C618" s="22"/>
@@ -7733,7 +7760,7 @@
       <c r="H618" s="7"/>
       <c r="I618" s="7"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619" s="20"/>
       <c r="B619" s="7"/>
       <c r="C619" s="22"/>
@@ -7744,7 +7771,7 @@
       <c r="H619" s="7"/>
       <c r="I619" s="7"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620" s="20"/>
       <c r="B620" s="7"/>
       <c r="C620" s="22"/>
@@ -7755,7 +7782,7 @@
       <c r="H620" s="7"/>
       <c r="I620" s="7"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621" s="20"/>
       <c r="B621" s="7"/>
       <c r="C621" s="22"/>
@@ -7766,7 +7793,7 @@
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622" s="20"/>
       <c r="B622" s="7"/>
       <c r="C622" s="22"/>
@@ -7777,7 +7804,7 @@
       <c r="H622" s="7"/>
       <c r="I622" s="7"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623" s="20"/>
       <c r="B623" s="7"/>
       <c r="C623" s="22"/>
@@ -7788,7 +7815,7 @@
       <c r="H623" s="7"/>
       <c r="I623" s="7"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" s="20"/>
       <c r="B624" s="7"/>
       <c r="C624" s="22"/>
@@ -7799,7 +7826,7 @@
       <c r="H624" s="7"/>
       <c r="I624" s="7"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" s="20"/>
       <c r="B625" s="7"/>
       <c r="C625" s="22"/>
@@ -7810,7 +7837,7 @@
       <c r="H625" s="7"/>
       <c r="I625" s="7"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" s="20"/>
       <c r="B626" s="7"/>
       <c r="C626" s="22"/>
@@ -7821,7 +7848,7 @@
       <c r="H626" s="7"/>
       <c r="I626" s="7"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627" s="20"/>
       <c r="B627" s="7"/>
       <c r="C627" s="22"/>
@@ -7832,7 +7859,7 @@
       <c r="H627" s="7"/>
       <c r="I627" s="7"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" s="20"/>
       <c r="B628" s="7"/>
       <c r="C628" s="22"/>
@@ -7843,7 +7870,7 @@
       <c r="H628" s="7"/>
       <c r="I628" s="7"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" s="20"/>
       <c r="B629" s="7"/>
       <c r="C629" s="22"/>
@@ -7854,7 +7881,7 @@
       <c r="H629" s="7"/>
       <c r="I629" s="7"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" s="20"/>
       <c r="B630" s="7"/>
       <c r="C630" s="22"/>
@@ -7865,7 +7892,7 @@
       <c r="H630" s="7"/>
       <c r="I630" s="7"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" s="20"/>
       <c r="B631" s="7"/>
       <c r="C631" s="22"/>
@@ -7876,7 +7903,7 @@
       <c r="H631" s="7"/>
       <c r="I631" s="7"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632" s="20"/>
       <c r="B632" s="7"/>
       <c r="C632" s="22"/>
@@ -7887,7 +7914,7 @@
       <c r="H632" s="7"/>
       <c r="I632" s="7"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633" s="20"/>
       <c r="B633" s="7"/>
       <c r="C633" s="22"/>
@@ -7898,7 +7925,7 @@
       <c r="H633" s="7"/>
       <c r="I633" s="7"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" s="20"/>
       <c r="B634" s="7"/>
       <c r="C634" s="22"/>
@@ -7909,7 +7936,7 @@
       <c r="H634" s="7"/>
       <c r="I634" s="7"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635" s="20"/>
       <c r="B635" s="7"/>
       <c r="C635" s="22"/>
@@ -7920,7 +7947,7 @@
       <c r="H635" s="7"/>
       <c r="I635" s="7"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" s="20"/>
       <c r="B636" s="7"/>
       <c r="C636" s="22"/>
@@ -7931,7 +7958,7 @@
       <c r="H636" s="7"/>
       <c r="I636" s="7"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637" s="20"/>
       <c r="B637" s="7"/>
       <c r="C637" s="22"/>
@@ -7942,7 +7969,7 @@
       <c r="H637" s="7"/>
       <c r="I637" s="7"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638" s="20"/>
       <c r="B638" s="7"/>
       <c r="C638" s="22"/>
@@ -7953,7 +7980,7 @@
       <c r="H638" s="7"/>
       <c r="I638" s="7"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639" s="20"/>
       <c r="B639" s="7"/>
       <c r="C639" s="22"/>
@@ -7964,7 +7991,7 @@
       <c r="H639" s="7"/>
       <c r="I639" s="7"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" s="20"/>
       <c r="B640" s="7"/>
       <c r="C640" s="22"/>
@@ -7975,7 +8002,7 @@
       <c r="H640" s="7"/>
       <c r="I640" s="7"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" s="20"/>
       <c r="B641" s="7"/>
       <c r="C641" s="22"/>
@@ -7986,7 +8013,7 @@
       <c r="H641" s="7"/>
       <c r="I641" s="7"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" s="20"/>
       <c r="B642" s="7"/>
       <c r="C642" s="22"/>
@@ -7997,7 +8024,7 @@
       <c r="H642" s="7"/>
       <c r="I642" s="7"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" s="20"/>
       <c r="B643" s="7"/>
       <c r="C643" s="22"/>
@@ -8008,7 +8035,7 @@
       <c r="H643" s="7"/>
       <c r="I643" s="7"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" s="20"/>
       <c r="B644" s="7"/>
       <c r="C644" s="22"/>
@@ -8019,7 +8046,7 @@
       <c r="H644" s="7"/>
       <c r="I644" s="7"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" s="20"/>
       <c r="B645" s="7"/>
       <c r="C645" s="22"/>
@@ -8030,7 +8057,7 @@
       <c r="H645" s="7"/>
       <c r="I645" s="7"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" s="20"/>
       <c r="B646" s="7"/>
       <c r="C646" s="22"/>
@@ -8041,7 +8068,7 @@
       <c r="H646" s="7"/>
       <c r="I646" s="7"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" s="20"/>
       <c r="B647" s="7"/>
       <c r="C647" s="22"/>
@@ -8052,7 +8079,7 @@
       <c r="H647" s="7"/>
       <c r="I647" s="7"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" s="20"/>
       <c r="B648" s="7"/>
       <c r="C648" s="22"/>
@@ -8063,7 +8090,7 @@
       <c r="H648" s="7"/>
       <c r="I648" s="7"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" s="20"/>
       <c r="B649" s="7"/>
       <c r="C649" s="22"/>
@@ -8074,7 +8101,7 @@
       <c r="H649" s="7"/>
       <c r="I649" s="7"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650" s="20"/>
       <c r="B650" s="7"/>
       <c r="C650" s="22"/>
@@ -8085,7 +8112,7 @@
       <c r="H650" s="7"/>
       <c r="I650" s="7"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" s="20"/>
       <c r="B651" s="7"/>
       <c r="C651" s="22"/>
@@ -8096,7 +8123,7 @@
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" s="20"/>
       <c r="B652" s="7"/>
       <c r="C652" s="22"/>
@@ -8107,7 +8134,7 @@
       <c r="H652" s="7"/>
       <c r="I652" s="7"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" s="20"/>
       <c r="B653" s="7"/>
       <c r="C653" s="22"/>
@@ -8118,7 +8145,7 @@
       <c r="H653" s="7"/>
       <c r="I653" s="7"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" s="20"/>
       <c r="B654" s="7"/>
       <c r="C654" s="22"/>
@@ -8129,7 +8156,7 @@
       <c r="H654" s="7"/>
       <c r="I654" s="7"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655" s="20"/>
       <c r="B655" s="7"/>
       <c r="C655" s="22"/>
@@ -8140,7 +8167,7 @@
       <c r="H655" s="7"/>
       <c r="I655" s="7"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" s="20"/>
       <c r="B656" s="7"/>
       <c r="C656" s="22"/>
@@ -8151,7 +8178,7 @@
       <c r="H656" s="7"/>
       <c r="I656" s="7"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" s="20"/>
       <c r="B657" s="7"/>
       <c r="C657" s="22"/>
@@ -8162,7 +8189,7 @@
       <c r="H657" s="7"/>
       <c r="I657" s="7"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" s="20"/>
       <c r="B658" s="7"/>
       <c r="C658" s="22"/>
@@ -8173,7 +8200,7 @@
       <c r="H658" s="7"/>
       <c r="I658" s="7"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" s="20"/>
       <c r="B659" s="7"/>
       <c r="C659" s="22"/>
@@ -8184,7 +8211,7 @@
       <c r="H659" s="7"/>
       <c r="I659" s="7"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" s="20"/>
       <c r="B660" s="7"/>
       <c r="C660" s="22"/>
@@ -8195,7 +8222,7 @@
       <c r="H660" s="7"/>
       <c r="I660" s="7"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661" s="20"/>
       <c r="B661" s="7"/>
       <c r="C661" s="22"/>
@@ -8206,7 +8233,7 @@
       <c r="H661" s="7"/>
       <c r="I661" s="7"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662" s="20"/>
       <c r="B662" s="7"/>
       <c r="C662" s="22"/>
@@ -8217,7 +8244,7 @@
       <c r="H662" s="7"/>
       <c r="I662" s="7"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663" s="20"/>
       <c r="B663" s="7"/>
       <c r="C663" s="22"/>
@@ -8228,7 +8255,7 @@
       <c r="H663" s="7"/>
       <c r="I663" s="7"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664" s="20"/>
       <c r="B664" s="7"/>
       <c r="C664" s="22"/>
@@ -8239,7 +8266,7 @@
       <c r="H664" s="7"/>
       <c r="I664" s="7"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665" s="20"/>
       <c r="B665" s="7"/>
       <c r="C665" s="22"/>
@@ -8250,7 +8277,7 @@
       <c r="H665" s="7"/>
       <c r="I665" s="7"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666" s="20"/>
       <c r="B666" s="7"/>
       <c r="C666" s="22"/>
@@ -8261,7 +8288,7 @@
       <c r="H666" s="7"/>
       <c r="I666" s="7"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667" s="20"/>
       <c r="B667" s="7"/>
       <c r="C667" s="22"/>
@@ -8272,7 +8299,7 @@
       <c r="H667" s="7"/>
       <c r="I667" s="7"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668" s="20"/>
       <c r="B668" s="7"/>
       <c r="C668" s="22"/>
@@ -8283,7 +8310,7 @@
       <c r="H668" s="7"/>
       <c r="I668" s="7"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669" s="20"/>
       <c r="B669" s="7"/>
       <c r="C669" s="22"/>
@@ -8294,7 +8321,7 @@
       <c r="H669" s="7"/>
       <c r="I669" s="7"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670" s="20"/>
       <c r="B670" s="7"/>
       <c r="C670" s="22"/>
@@ -8305,7 +8332,7 @@
       <c r="H670" s="7"/>
       <c r="I670" s="7"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671" s="20"/>
       <c r="B671" s="7"/>
       <c r="C671" s="22"/>
@@ -8316,7 +8343,7 @@
       <c r="H671" s="7"/>
       <c r="I671" s="7"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" s="20"/>
       <c r="B672" s="7"/>
       <c r="C672" s="22"/>
@@ -8327,7 +8354,7 @@
       <c r="H672" s="7"/>
       <c r="I672" s="7"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" s="20"/>
       <c r="B673" s="7"/>
       <c r="C673" s="22"/>
@@ -8338,7 +8365,7 @@
       <c r="H673" s="7"/>
       <c r="I673" s="7"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674" s="20"/>
       <c r="B674" s="7"/>
       <c r="C674" s="22"/>
@@ -8349,7 +8376,7 @@
       <c r="H674" s="7"/>
       <c r="I674" s="7"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675" s="20"/>
       <c r="B675" s="7"/>
       <c r="C675" s="22"/>
@@ -8360,7 +8387,7 @@
       <c r="H675" s="7"/>
       <c r="I675" s="7"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676" s="20"/>
       <c r="B676" s="7"/>
       <c r="C676" s="22"/>
@@ -8371,7 +8398,7 @@
       <c r="H676" s="7"/>
       <c r="I676" s="7"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" s="20"/>
       <c r="B677" s="7"/>
       <c r="C677" s="22"/>
@@ -8382,7 +8409,7 @@
       <c r="H677" s="7"/>
       <c r="I677" s="7"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" s="20"/>
       <c r="B678" s="7"/>
       <c r="C678" s="22"/>
@@ -8393,7 +8420,7 @@
       <c r="H678" s="7"/>
       <c r="I678" s="7"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" s="20"/>
       <c r="B679" s="7"/>
       <c r="C679" s="22"/>
@@ -8404,7 +8431,7 @@
       <c r="H679" s="7"/>
       <c r="I679" s="7"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680" s="20"/>
       <c r="B680" s="7"/>
       <c r="C680" s="22"/>
@@ -8415,7 +8442,7 @@
       <c r="H680" s="7"/>
       <c r="I680" s="7"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681" s="20"/>
       <c r="B681" s="7"/>
       <c r="C681" s="22"/>
@@ -8426,7 +8453,7 @@
       <c r="H681" s="7"/>
       <c r="I681" s="7"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" s="20"/>
       <c r="B682" s="7"/>
       <c r="C682" s="22"/>
@@ -8437,7 +8464,7 @@
       <c r="H682" s="7"/>
       <c r="I682" s="7"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" s="20"/>
       <c r="B683" s="7"/>
       <c r="C683" s="22"/>
@@ -8448,7 +8475,7 @@
       <c r="H683" s="7"/>
       <c r="I683" s="7"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" s="20"/>
       <c r="B684" s="7"/>
       <c r="C684" s="22"/>
@@ -8459,7 +8486,7 @@
       <c r="H684" s="7"/>
       <c r="I684" s="7"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685" s="20"/>
       <c r="B685" s="7"/>
       <c r="C685" s="22"/>
@@ -8470,7 +8497,7 @@
       <c r="H685" s="7"/>
       <c r="I685" s="7"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686" s="20"/>
       <c r="B686" s="7"/>
       <c r="C686" s="22"/>
@@ -8481,7 +8508,7 @@
       <c r="H686" s="7"/>
       <c r="I686" s="7"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687" s="20"/>
       <c r="B687" s="7"/>
       <c r="C687" s="22"/>
@@ -8492,7 +8519,7 @@
       <c r="H687" s="7"/>
       <c r="I687" s="7"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" s="20"/>
       <c r="B688" s="7"/>
       <c r="C688" s="22"/>
@@ -8503,7 +8530,7 @@
       <c r="H688" s="7"/>
       <c r="I688" s="7"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" s="20"/>
       <c r="B689" s="7"/>
       <c r="C689" s="22"/>
@@ -8514,7 +8541,7 @@
       <c r="H689" s="7"/>
       <c r="I689" s="7"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690" s="20"/>
       <c r="B690" s="7"/>
       <c r="C690" s="22"/>
@@ -8525,7 +8552,7 @@
       <c r="H690" s="7"/>
       <c r="I690" s="7"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691" s="20"/>
       <c r="B691" s="7"/>
       <c r="C691" s="22"/>
@@ -8536,7 +8563,7 @@
       <c r="H691" s="7"/>
       <c r="I691" s="7"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" s="20"/>
       <c r="B692" s="7"/>
       <c r="C692" s="22"/>
@@ -8547,7 +8574,7 @@
       <c r="H692" s="7"/>
       <c r="I692" s="7"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" s="20"/>
       <c r="B693" s="7"/>
       <c r="C693" s="22"/>
@@ -8558,7 +8585,7 @@
       <c r="H693" s="7"/>
       <c r="I693" s="7"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" s="20"/>
       <c r="B694" s="7"/>
       <c r="C694" s="22"/>
@@ -8569,7 +8596,7 @@
       <c r="H694" s="7"/>
       <c r="I694" s="7"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" s="20"/>
       <c r="B695" s="7"/>
       <c r="C695" s="22"/>
@@ -8580,7 +8607,7 @@
       <c r="H695" s="7"/>
       <c r="I695" s="7"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" s="20"/>
       <c r="B696" s="7"/>
       <c r="C696" s="22"/>
@@ -8591,7 +8618,7 @@
       <c r="H696" s="7"/>
       <c r="I696" s="7"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" s="20"/>
       <c r="B697" s="7"/>
       <c r="C697" s="22"/>
@@ -8602,7 +8629,7 @@
       <c r="H697" s="7"/>
       <c r="I697" s="7"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" s="20"/>
       <c r="B698" s="7"/>
       <c r="C698" s="22"/>
@@ -8613,7 +8640,7 @@
       <c r="H698" s="7"/>
       <c r="I698" s="7"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" s="20"/>
       <c r="B699" s="7"/>
       <c r="C699" s="22"/>
@@ -8624,7 +8651,7 @@
       <c r="H699" s="7"/>
       <c r="I699" s="7"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" s="20"/>
       <c r="B700" s="7"/>
       <c r="C700" s="22"/>
@@ -8635,7 +8662,7 @@
       <c r="H700" s="7"/>
       <c r="I700" s="7"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701" s="20"/>
       <c r="B701" s="7"/>
       <c r="C701" s="22"/>
@@ -8646,7 +8673,7 @@
       <c r="H701" s="7"/>
       <c r="I701" s="7"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702" s="20"/>
       <c r="B702" s="7"/>
       <c r="C702" s="22"/>
@@ -8657,7 +8684,7 @@
       <c r="H702" s="7"/>
       <c r="I702" s="7"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703" s="20"/>
       <c r="B703" s="7"/>
       <c r="C703" s="22"/>
@@ -8668,7 +8695,7 @@
       <c r="H703" s="7"/>
       <c r="I703" s="7"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704" s="20"/>
       <c r="B704" s="7"/>
       <c r="C704" s="22"/>
@@ -8679,7 +8706,7 @@
       <c r="H704" s="7"/>
       <c r="I704" s="7"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705" s="20"/>
       <c r="B705" s="7"/>
       <c r="C705" s="22"/>
@@ -8690,7 +8717,7 @@
       <c r="H705" s="7"/>
       <c r="I705" s="7"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706" s="20"/>
       <c r="B706" s="7"/>
       <c r="C706" s="22"/>
@@ -8701,7 +8728,7 @@
       <c r="H706" s="7"/>
       <c r="I706" s="7"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707" s="20"/>
       <c r="B707" s="7"/>
       <c r="C707" s="22"/>
@@ -8712,7 +8739,7 @@
       <c r="H707" s="7"/>
       <c r="I707" s="7"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708" s="20"/>
       <c r="B708" s="7"/>
       <c r="C708" s="22"/>
@@ -8723,7 +8750,7 @@
       <c r="H708" s="7"/>
       <c r="I708" s="7"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709" s="20"/>
       <c r="B709" s="7"/>
       <c r="C709" s="22"/>
@@ -8734,7 +8761,7 @@
       <c r="H709" s="7"/>
       <c r="I709" s="7"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710" s="20"/>
       <c r="B710" s="7"/>
       <c r="C710" s="22"/>
@@ -8745,7 +8772,7 @@
       <c r="H710" s="7"/>
       <c r="I710" s="7"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711" s="20"/>
       <c r="B711" s="7"/>
       <c r="C711" s="22"/>
@@ -8756,7 +8783,7 @@
       <c r="H711" s="7"/>
       <c r="I711" s="7"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712" s="20"/>
       <c r="B712" s="7"/>
       <c r="C712" s="22"/>
@@ -8767,7 +8794,7 @@
       <c r="H712" s="7"/>
       <c r="I712" s="7"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713" s="20"/>
       <c r="B713" s="7"/>
       <c r="C713" s="22"/>
@@ -8778,7 +8805,7 @@
       <c r="H713" s="7"/>
       <c r="I713" s="7"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714" s="20"/>
       <c r="B714" s="7"/>
       <c r="C714" s="22"/>
@@ -8789,7 +8816,7 @@
       <c r="H714" s="7"/>
       <c r="I714" s="7"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715" s="20"/>
       <c r="B715" s="7"/>
       <c r="C715" s="22"/>
@@ -8800,7 +8827,7 @@
       <c r="H715" s="7"/>
       <c r="I715" s="7"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" s="20"/>
       <c r="B716" s="7"/>
       <c r="C716" s="22"/>
@@ -8811,7 +8838,7 @@
       <c r="H716" s="7"/>
       <c r="I716" s="7"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" s="20"/>
       <c r="B717" s="7"/>
       <c r="C717" s="22"/>
@@ -8822,7 +8849,7 @@
       <c r="H717" s="7"/>
       <c r="I717" s="7"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" s="20"/>
       <c r="B718" s="7"/>
       <c r="C718" s="22"/>
@@ -8833,7 +8860,7 @@
       <c r="H718" s="7"/>
       <c r="I718" s="7"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" s="20"/>
       <c r="B719" s="7"/>
       <c r="C719" s="22"/>
@@ -8844,7 +8871,7 @@
       <c r="H719" s="7"/>
       <c r="I719" s="7"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720" s="20"/>
       <c r="B720" s="7"/>
       <c r="C720" s="22"/>
@@ -8855,7 +8882,7 @@
       <c r="H720" s="7"/>
       <c r="I720" s="7"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721" s="20"/>
       <c r="B721" s="7"/>
       <c r="C721" s="22"/>
@@ -8866,7 +8893,7 @@
       <c r="H721" s="7"/>
       <c r="I721" s="7"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722" s="20"/>
       <c r="B722" s="7"/>
       <c r="C722" s="22"/>
@@ -8877,7 +8904,7 @@
       <c r="H722" s="7"/>
       <c r="I722" s="7"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723" s="20"/>
       <c r="B723" s="7"/>
       <c r="C723" s="22"/>
@@ -8888,7 +8915,7 @@
       <c r="H723" s="7"/>
       <c r="I723" s="7"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724" s="20"/>
       <c r="B724" s="7"/>
       <c r="C724" s="22"/>
@@ -8899,7 +8926,7 @@
       <c r="H724" s="7"/>
       <c r="I724" s="7"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725" s="20"/>
       <c r="B725" s="7"/>
       <c r="C725" s="22"/>
@@ -8910,7 +8937,7 @@
       <c r="H725" s="7"/>
       <c r="I725" s="7"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726" s="20"/>
       <c r="B726" s="7"/>
       <c r="C726" s="22"/>
@@ -8921,7 +8948,7 @@
       <c r="H726" s="7"/>
       <c r="I726" s="7"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727" s="20"/>
       <c r="B727" s="7"/>
       <c r="C727" s="22"/>
@@ -8932,7 +8959,7 @@
       <c r="H727" s="7"/>
       <c r="I727" s="7"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728" s="20"/>
       <c r="B728" s="7"/>
       <c r="C728" s="22"/>
@@ -8943,7 +8970,7 @@
       <c r="H728" s="7"/>
       <c r="I728" s="7"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729" s="20"/>
       <c r="B729" s="7"/>
       <c r="C729" s="22"/>
@@ -8954,7 +8981,7 @@
       <c r="H729" s="7"/>
       <c r="I729" s="7"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" s="20"/>
       <c r="B730" s="7"/>
       <c r="C730" s="22"/>
@@ -8965,7 +8992,7 @@
       <c r="H730" s="7"/>
       <c r="I730" s="7"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731" s="20"/>
       <c r="B731" s="7"/>
       <c r="C731" s="22"/>
@@ -8976,7 +9003,7 @@
       <c r="H731" s="7"/>
       <c r="I731" s="7"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732" s="20"/>
       <c r="B732" s="7"/>
       <c r="C732" s="22"/>
@@ -8987,7 +9014,7 @@
       <c r="H732" s="7"/>
       <c r="I732" s="7"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" s="20"/>
       <c r="B733" s="7"/>
       <c r="C733" s="22"/>
@@ -8998,7 +9025,7 @@
       <c r="H733" s="7"/>
       <c r="I733" s="7"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734" s="20"/>
       <c r="B734" s="7"/>
       <c r="C734" s="22"/>
@@ -9009,7 +9036,7 @@
       <c r="H734" s="7"/>
       <c r="I734" s="7"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735" s="20"/>
       <c r="B735" s="7"/>
       <c r="C735" s="22"/>
@@ -9020,7 +9047,7 @@
       <c r="H735" s="7"/>
       <c r="I735" s="7"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736" s="20"/>
       <c r="B736" s="7"/>
       <c r="C736" s="22"/>
@@ -9031,7 +9058,7 @@
       <c r="H736" s="7"/>
       <c r="I736" s="7"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737" s="20"/>
       <c r="B737" s="7"/>
       <c r="C737" s="22"/>
@@ -9042,7 +9069,7 @@
       <c r="H737" s="7"/>
       <c r="I737" s="7"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738" s="20"/>
       <c r="B738" s="7"/>
       <c r="C738" s="22"/>
@@ -9053,7 +9080,7 @@
       <c r="H738" s="7"/>
       <c r="I738" s="7"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739" s="20"/>
       <c r="B739" s="7"/>
       <c r="C739" s="22"/>
@@ -9064,7 +9091,7 @@
       <c r="H739" s="7"/>
       <c r="I739" s="7"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740" s="20"/>
       <c r="B740" s="7"/>
       <c r="C740" s="22"/>
@@ -9075,7 +9102,7 @@
       <c r="H740" s="7"/>
       <c r="I740" s="7"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741" s="20"/>
       <c r="B741" s="7"/>
       <c r="C741" s="22"/>
@@ -9086,7 +9113,7 @@
       <c r="H741" s="7"/>
       <c r="I741" s="7"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742" s="20"/>
       <c r="B742" s="7"/>
       <c r="C742" s="22"/>
@@ -9097,7 +9124,7 @@
       <c r="H742" s="7"/>
       <c r="I742" s="7"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743" s="20"/>
       <c r="B743" s="7"/>
       <c r="C743" s="22"/>
@@ -9108,7 +9135,7 @@
       <c r="H743" s="7"/>
       <c r="I743" s="7"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744" s="20"/>
       <c r="B744" s="7"/>
       <c r="C744" s="22"/>
@@ -9119,7 +9146,7 @@
       <c r="H744" s="7"/>
       <c r="I744" s="7"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745" s="20"/>
       <c r="B745" s="7"/>
       <c r="C745" s="22"/>
@@ -9130,7 +9157,7 @@
       <c r="H745" s="7"/>
       <c r="I745" s="7"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746" s="20"/>
       <c r="B746" s="7"/>
       <c r="C746" s="22"/>
@@ -9141,7 +9168,7 @@
       <c r="H746" s="7"/>
       <c r="I746" s="7"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747" s="20"/>
       <c r="B747" s="7"/>
       <c r="C747" s="22"/>
@@ -9152,7 +9179,7 @@
       <c r="H747" s="7"/>
       <c r="I747" s="7"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748" s="20"/>
       <c r="B748" s="7"/>
       <c r="C748" s="22"/>
@@ -9163,7 +9190,7 @@
       <c r="H748" s="7"/>
       <c r="I748" s="7"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749" s="20"/>
       <c r="B749" s="7"/>
       <c r="C749" s="22"/>
@@ -9174,7 +9201,7 @@
       <c r="H749" s="7"/>
       <c r="I749" s="7"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750" s="20"/>
       <c r="B750" s="7"/>
       <c r="C750" s="22"/>
@@ -9185,7 +9212,7 @@
       <c r="H750" s="7"/>
       <c r="I750" s="7"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751" s="20"/>
       <c r="B751" s="7"/>
       <c r="C751" s="22"/>
@@ -9196,7 +9223,7 @@
       <c r="H751" s="7"/>
       <c r="I751" s="7"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752" s="20"/>
       <c r="B752" s="7"/>
       <c r="C752" s="22"/>
@@ -9207,7 +9234,7 @@
       <c r="H752" s="7"/>
       <c r="I752" s="7"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753" s="20"/>
       <c r="B753" s="7"/>
       <c r="C753" s="22"/>
@@ -9218,7 +9245,7 @@
       <c r="H753" s="7"/>
       <c r="I753" s="7"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754" s="20"/>
       <c r="B754" s="7"/>
       <c r="C754" s="22"/>
@@ -9229,7 +9256,7 @@
       <c r="H754" s="7"/>
       <c r="I754" s="7"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755" s="20"/>
       <c r="B755" s="7"/>
       <c r="C755" s="22"/>
@@ -9240,7 +9267,7 @@
       <c r="H755" s="7"/>
       <c r="I755" s="7"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756" s="20"/>
       <c r="B756" s="7"/>
       <c r="C756" s="22"/>
@@ -9251,7 +9278,7 @@
       <c r="H756" s="7"/>
       <c r="I756" s="7"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757" s="20"/>
       <c r="B757" s="7"/>
       <c r="C757" s="22"/>
@@ -9262,7 +9289,7 @@
       <c r="H757" s="7"/>
       <c r="I757" s="7"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758" s="20"/>
       <c r="B758" s="7"/>
       <c r="C758" s="22"/>
@@ -9273,7 +9300,7 @@
       <c r="H758" s="7"/>
       <c r="I758" s="7"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759" s="20"/>
       <c r="B759" s="7"/>
       <c r="C759" s="22"/>
@@ -9284,7 +9311,7 @@
       <c r="H759" s="7"/>
       <c r="I759" s="7"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760" s="20"/>
       <c r="B760" s="7"/>
       <c r="C760" s="22"/>
@@ -9295,7 +9322,7 @@
       <c r="H760" s="7"/>
       <c r="I760" s="7"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761" s="20"/>
       <c r="B761" s="7"/>
       <c r="C761" s="22"/>
@@ -9306,7 +9333,7 @@
       <c r="H761" s="7"/>
       <c r="I761" s="7"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762" s="20"/>
       <c r="B762" s="7"/>
       <c r="C762" s="22"/>
@@ -9317,7 +9344,7 @@
       <c r="H762" s="7"/>
       <c r="I762" s="7"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763" s="20"/>
       <c r="B763" s="7"/>
       <c r="C763" s="22"/>
@@ -9328,7 +9355,7 @@
       <c r="H763" s="7"/>
       <c r="I763" s="7"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764" s="20"/>
       <c r="B764" s="7"/>
       <c r="C764" s="22"/>
@@ -9339,7 +9366,7 @@
       <c r="H764" s="7"/>
       <c r="I764" s="7"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765" s="20"/>
       <c r="B765" s="7"/>
       <c r="C765" s="22"/>
@@ -9350,7 +9377,7 @@
       <c r="H765" s="7"/>
       <c r="I765" s="7"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766" s="20"/>
       <c r="B766" s="7"/>
       <c r="C766" s="22"/>
@@ -9361,7 +9388,7 @@
       <c r="H766" s="7"/>
       <c r="I766" s="7"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767" s="20"/>
       <c r="B767" s="7"/>
       <c r="C767" s="22"/>
@@ -9372,7 +9399,7 @@
       <c r="H767" s="7"/>
       <c r="I767" s="7"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768" s="20"/>
       <c r="B768" s="7"/>
       <c r="C768" s="22"/>
@@ -9383,7 +9410,7 @@
       <c r="H768" s="7"/>
       <c r="I768" s="7"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769" s="20"/>
       <c r="B769" s="7"/>
       <c r="C769" s="22"/>
@@ -9394,7 +9421,7 @@
       <c r="H769" s="7"/>
       <c r="I769" s="7"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A770" s="20"/>
       <c r="B770" s="7"/>
       <c r="C770" s="22"/>
@@ -9405,7 +9432,7 @@
       <c r="H770" s="7"/>
       <c r="I770" s="7"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A771" s="20"/>
       <c r="B771" s="7"/>
       <c r="C771" s="22"/>
@@ -9416,7 +9443,7 @@
       <c r="H771" s="7"/>
       <c r="I771" s="7"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A772" s="20"/>
       <c r="B772" s="7"/>
       <c r="C772" s="22"/>
@@ -9427,7 +9454,7 @@
       <c r="H772" s="7"/>
       <c r="I772" s="7"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A773" s="20"/>
       <c r="B773" s="7"/>
       <c r="C773" s="22"/>
@@ -9438,7 +9465,7 @@
       <c r="H773" s="7"/>
       <c r="I773" s="7"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A774" s="20"/>
       <c r="B774" s="7"/>
       <c r="C774" s="22"/>
@@ -9449,7 +9476,7 @@
       <c r="H774" s="7"/>
       <c r="I774" s="7"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A775" s="20"/>
       <c r="B775" s="7"/>
       <c r="C775" s="22"/>
@@ -9460,7 +9487,7 @@
       <c r="H775" s="7"/>
       <c r="I775" s="7"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A776" s="20"/>
       <c r="B776" s="7"/>
       <c r="C776" s="22"/>
@@ -9471,7 +9498,7 @@
       <c r="H776" s="7"/>
       <c r="I776" s="7"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A777" s="20"/>
       <c r="B777" s="7"/>
       <c r="C777" s="22"/>
@@ -9482,7 +9509,7 @@
       <c r="H777" s="7"/>
       <c r="I777" s="7"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A778" s="20"/>
       <c r="B778" s="7"/>
       <c r="C778" s="22"/>
@@ -9493,7 +9520,7 @@
       <c r="H778" s="7"/>
       <c r="I778" s="7"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A779" s="20"/>
       <c r="B779" s="7"/>
       <c r="C779" s="22"/>
@@ -9504,7 +9531,7 @@
       <c r="H779" s="7"/>
       <c r="I779" s="7"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A780" s="20"/>
       <c r="B780" s="7"/>
       <c r="C780" s="22"/>
@@ -9515,7 +9542,7 @@
       <c r="H780" s="7"/>
       <c r="I780" s="7"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A781" s="20"/>
       <c r="B781" s="7"/>
       <c r="C781" s="22"/>
@@ -9526,7 +9553,7 @@
       <c r="H781" s="7"/>
       <c r="I781" s="7"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A782" s="20"/>
       <c r="B782" s="7"/>
       <c r="C782" s="22"/>
@@ -9537,7 +9564,7 @@
       <c r="H782" s="7"/>
       <c r="I782" s="7"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A783" s="20"/>
       <c r="B783" s="7"/>
       <c r="C783" s="22"/>
@@ -9548,7 +9575,7 @@
       <c r="H783" s="7"/>
       <c r="I783" s="7"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A784" s="20"/>
       <c r="B784" s="7"/>
       <c r="C784" s="22"/>
@@ -9559,7 +9586,7 @@
       <c r="H784" s="7"/>
       <c r="I784" s="7"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A785" s="20"/>
       <c r="B785" s="7"/>
       <c r="C785" s="22"/>
@@ -9570,7 +9597,7 @@
       <c r="H785" s="7"/>
       <c r="I785" s="7"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A786" s="20"/>
       <c r="B786" s="7"/>
       <c r="C786" s="22"/>
@@ -9581,7 +9608,7 @@
       <c r="H786" s="7"/>
       <c r="I786" s="7"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A787" s="20"/>
       <c r="B787" s="7"/>
       <c r="C787" s="22"/>
@@ -9592,7 +9619,7 @@
       <c r="H787" s="7"/>
       <c r="I787" s="7"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A788" s="20"/>
       <c r="B788" s="7"/>
       <c r="C788" s="22"/>
@@ -9603,7 +9630,7 @@
       <c r="H788" s="7"/>
       <c r="I788" s="7"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A789" s="20"/>
       <c r="B789" s="7"/>
       <c r="C789" s="22"/>
@@ -9614,7 +9641,7 @@
       <c r="H789" s="7"/>
       <c r="I789" s="7"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A790" s="20"/>
       <c r="B790" s="7"/>
       <c r="C790" s="22"/>
@@ -9625,7 +9652,7 @@
       <c r="H790" s="7"/>
       <c r="I790" s="7"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A791" s="20"/>
       <c r="B791" s="7"/>
       <c r="C791" s="22"/>
@@ -9636,7 +9663,7 @@
       <c r="H791" s="7"/>
       <c r="I791" s="7"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A792" s="20"/>
       <c r="B792" s="7"/>
       <c r="C792" s="22"/>
@@ -9647,7 +9674,7 @@
       <c r="H792" s="7"/>
       <c r="I792" s="7"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A793" s="20"/>
       <c r="B793" s="7"/>
       <c r="C793" s="22"/>
@@ -9658,7 +9685,7 @@
       <c r="H793" s="7"/>
       <c r="I793" s="7"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A794" s="20"/>
       <c r="B794" s="7"/>
       <c r="C794" s="22"/>
@@ -9669,7 +9696,7 @@
       <c r="H794" s="7"/>
       <c r="I794" s="7"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A795" s="20"/>
       <c r="B795" s="7"/>
       <c r="C795" s="22"/>
@@ -9680,7 +9707,7 @@
       <c r="H795" s="7"/>
       <c r="I795" s="7"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A796" s="20"/>
       <c r="B796" s="7"/>
       <c r="C796" s="22"/>
@@ -9691,7 +9718,7 @@
       <c r="H796" s="7"/>
       <c r="I796" s="7"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A797" s="20"/>
       <c r="B797" s="7"/>
       <c r="C797" s="22"/>
@@ -9702,7 +9729,7 @@
       <c r="H797" s="7"/>
       <c r="I797" s="7"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A798" s="20"/>
       <c r="B798" s="7"/>
       <c r="C798" s="22"/>
@@ -9713,7 +9740,7 @@
       <c r="H798" s="7"/>
       <c r="I798" s="7"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A799" s="20"/>
       <c r="B799" s="7"/>
       <c r="C799" s="22"/>
@@ -9724,7 +9751,7 @@
       <c r="H799" s="7"/>
       <c r="I799" s="7"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A800" s="20"/>
       <c r="B800" s="7"/>
       <c r="C800" s="22"/>
@@ -9735,7 +9762,7 @@
       <c r="H800" s="7"/>
       <c r="I800" s="7"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A801" s="20"/>
       <c r="B801" s="7"/>
       <c r="C801" s="22"/>
@@ -9746,7 +9773,7 @@
       <c r="H801" s="7"/>
       <c r="I801" s="7"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A802" s="20"/>
       <c r="B802" s="7"/>
       <c r="C802" s="22"/>
@@ -9757,7 +9784,7 @@
       <c r="H802" s="7"/>
       <c r="I802" s="7"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A803" s="20"/>
       <c r="B803" s="7"/>
       <c r="C803" s="22"/>
@@ -9768,7 +9795,7 @@
       <c r="H803" s="7"/>
       <c r="I803" s="7"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A804" s="20"/>
       <c r="B804" s="7"/>
       <c r="C804" s="22"/>
@@ -9779,7 +9806,7 @@
       <c r="H804" s="7"/>
       <c r="I804" s="7"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A805" s="20"/>
       <c r="B805" s="7"/>
       <c r="C805" s="22"/>
@@ -9790,7 +9817,7 @@
       <c r="H805" s="7"/>
       <c r="I805" s="7"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A806" s="20"/>
       <c r="B806" s="7"/>
       <c r="C806" s="22"/>
@@ -9801,7 +9828,7 @@
       <c r="H806" s="7"/>
       <c r="I806" s="7"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A807" s="20"/>
       <c r="B807" s="7"/>
       <c r="C807" s="22"/>
@@ -9812,7 +9839,7 @@
       <c r="H807" s="7"/>
       <c r="I807" s="7"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A808" s="20"/>
       <c r="B808" s="7"/>
       <c r="C808" s="22"/>
@@ -9823,7 +9850,7 @@
       <c r="H808" s="7"/>
       <c r="I808" s="7"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A809" s="20"/>
       <c r="B809" s="7"/>
       <c r="C809" s="22"/>
@@ -9834,7 +9861,7 @@
       <c r="H809" s="7"/>
       <c r="I809" s="7"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A810" s="20"/>
       <c r="B810" s="7"/>
       <c r="C810" s="22"/>
@@ -9845,7 +9872,7 @@
       <c r="H810" s="7"/>
       <c r="I810" s="7"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A811" s="20"/>
       <c r="B811" s="7"/>
       <c r="C811" s="22"/>
@@ -9856,7 +9883,7 @@
       <c r="H811" s="7"/>
       <c r="I811" s="7"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A812" s="20"/>
       <c r="B812" s="7"/>
       <c r="C812" s="22"/>
@@ -9867,7 +9894,7 @@
       <c r="H812" s="7"/>
       <c r="I812" s="7"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A813" s="20"/>
       <c r="B813" s="7"/>
       <c r="C813" s="22"/>
@@ -9878,7 +9905,7 @@
       <c r="H813" s="7"/>
       <c r="I813" s="7"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A814" s="20"/>
       <c r="B814" s="7"/>
       <c r="C814" s="22"/>
@@ -9889,7 +9916,7 @@
       <c r="H814" s="7"/>
       <c r="I814" s="7"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A815" s="20"/>
       <c r="B815" s="7"/>
       <c r="C815" s="22"/>
@@ -9900,7 +9927,7 @@
       <c r="H815" s="7"/>
       <c r="I815" s="7"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A816" s="20"/>
       <c r="B816" s="7"/>
       <c r="C816" s="22"/>
@@ -9911,7 +9938,7 @@
       <c r="H816" s="7"/>
       <c r="I816" s="7"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A817" s="20"/>
       <c r="B817" s="7"/>
       <c r="C817" s="22"/>
@@ -9922,7 +9949,7 @@
       <c r="H817" s="7"/>
       <c r="I817" s="7"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A818" s="20"/>
       <c r="B818" s="7"/>
       <c r="C818" s="22"/>
@@ -9933,7 +9960,7 @@
       <c r="H818" s="7"/>
       <c r="I818" s="7"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A819" s="20"/>
       <c r="B819" s="7"/>
       <c r="C819" s="22"/>
@@ -9944,7 +9971,7 @@
       <c r="H819" s="7"/>
       <c r="I819" s="7"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A820" s="20"/>
       <c r="B820" s="7"/>
       <c r="C820" s="22"/>
@@ -9955,7 +9982,7 @@
       <c r="H820" s="7"/>
       <c r="I820" s="7"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A821" s="20"/>
       <c r="B821" s="7"/>
       <c r="C821" s="22"/>
@@ -9966,7 +9993,7 @@
       <c r="H821" s="7"/>
       <c r="I821" s="7"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A822" s="20"/>
       <c r="B822" s="7"/>
       <c r="C822" s="22"/>
@@ -9977,7 +10004,7 @@
       <c r="H822" s="7"/>
       <c r="I822" s="7"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A823" s="20"/>
       <c r="B823" s="7"/>
       <c r="C823" s="22"/>
@@ -9988,7 +10015,7 @@
       <c r="H823" s="7"/>
       <c r="I823" s="7"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A824" s="20"/>
       <c r="B824" s="7"/>
       <c r="C824" s="22"/>
@@ -9999,7 +10026,7 @@
       <c r="H824" s="7"/>
       <c r="I824" s="7"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A825" s="20"/>
       <c r="B825" s="7"/>
       <c r="C825" s="22"/>
@@ -10010,7 +10037,7 @@
       <c r="H825" s="7"/>
       <c r="I825" s="7"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A826" s="20"/>
       <c r="B826" s="7"/>
       <c r="C826" s="22"/>
@@ -10021,7 +10048,7 @@
       <c r="H826" s="7"/>
       <c r="I826" s="7"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A827" s="20"/>
       <c r="B827" s="7"/>
       <c r="C827" s="22"/>
@@ -10032,7 +10059,7 @@
       <c r="H827" s="7"/>
       <c r="I827" s="7"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A828" s="20"/>
       <c r="B828" s="7"/>
       <c r="C828" s="22"/>
@@ -10043,7 +10070,7 @@
       <c r="H828" s="7"/>
       <c r="I828" s="7"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A829" s="20"/>
       <c r="B829" s="7"/>
       <c r="C829" s="22"/>
@@ -10054,7 +10081,7 @@
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A830" s="20"/>
       <c r="B830" s="7"/>
       <c r="C830" s="22"/>
@@ -10065,7 +10092,7 @@
       <c r="H830" s="7"/>
       <c r="I830" s="7"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A831" s="20"/>
       <c r="B831" s="7"/>
       <c r="C831" s="22"/>
@@ -10076,7 +10103,7 @@
       <c r="H831" s="7"/>
       <c r="I831" s="7"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A832" s="20"/>
       <c r="B832" s="7"/>
       <c r="C832" s="22"/>
@@ -10087,7 +10114,7 @@
       <c r="H832" s="7"/>
       <c r="I832" s="7"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A833" s="20"/>
       <c r="B833" s="7"/>
       <c r="C833" s="22"/>
@@ -10098,7 +10125,7 @@
       <c r="H833" s="7"/>
       <c r="I833" s="7"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A834" s="20"/>
       <c r="B834" s="7"/>
       <c r="C834" s="22"/>
@@ -10109,7 +10136,7 @@
       <c r="H834" s="7"/>
       <c r="I834" s="7"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A835" s="20"/>
       <c r="B835" s="7"/>
       <c r="C835" s="22"/>
@@ -10120,7 +10147,7 @@
       <c r="H835" s="7"/>
       <c r="I835" s="7"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A836" s="20"/>
       <c r="B836" s="7"/>
       <c r="C836" s="22"/>
@@ -10131,7 +10158,7 @@
       <c r="H836" s="7"/>
       <c r="I836" s="7"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A837" s="20"/>
       <c r="B837" s="7"/>
       <c r="C837" s="22"/>
@@ -10142,7 +10169,7 @@
       <c r="H837" s="7"/>
       <c r="I837" s="7"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A838" s="20"/>
       <c r="B838" s="7"/>
       <c r="C838" s="22"/>
@@ -10153,7 +10180,7 @@
       <c r="H838" s="7"/>
       <c r="I838" s="7"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A839" s="20"/>
       <c r="B839" s="7"/>
       <c r="C839" s="22"/>
@@ -10164,7 +10191,7 @@
       <c r="H839" s="7"/>
       <c r="I839" s="7"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A840" s="20"/>
       <c r="B840" s="7"/>
       <c r="C840" s="22"/>
@@ -10175,7 +10202,7 @@
       <c r="H840" s="7"/>
       <c r="I840" s="7"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A841" s="20"/>
       <c r="B841" s="7"/>
       <c r="C841" s="22"/>
@@ -10186,7 +10213,7 @@
       <c r="H841" s="7"/>
       <c r="I841" s="7"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A842" s="20"/>
       <c r="B842" s="7"/>
       <c r="C842" s="22"/>
@@ -10197,7 +10224,7 @@
       <c r="H842" s="7"/>
       <c r="I842" s="7"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A843" s="20"/>
       <c r="B843" s="7"/>
       <c r="C843" s="22"/>
@@ -10208,7 +10235,7 @@
       <c r="H843" s="7"/>
       <c r="I843" s="7"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A844" s="20"/>
       <c r="B844" s="7"/>
       <c r="C844" s="22"/>
@@ -10219,7 +10246,7 @@
       <c r="H844" s="7"/>
       <c r="I844" s="7"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A845" s="20"/>
       <c r="B845" s="7"/>
       <c r="C845" s="22"/>
@@ -10230,7 +10257,7 @@
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A846" s="20"/>
       <c r="B846" s="7"/>
       <c r="C846" s="22"/>
@@ -10241,7 +10268,7 @@
       <c r="H846" s="7"/>
       <c r="I846" s="7"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A847" s="20"/>
       <c r="B847" s="7"/>
       <c r="C847" s="22"/>
@@ -10252,7 +10279,7 @@
       <c r="H847" s="7"/>
       <c r="I847" s="7"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A848" s="20"/>
       <c r="B848" s="7"/>
       <c r="C848" s="22"/>
@@ -10263,7 +10290,7 @@
       <c r="H848" s="7"/>
       <c r="I848" s="7"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A849" s="20"/>
       <c r="B849" s="7"/>
       <c r="C849" s="22"/>
@@ -10274,7 +10301,7 @@
       <c r="H849" s="7"/>
       <c r="I849" s="7"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A850" s="20"/>
       <c r="B850" s="7"/>
       <c r="C850" s="22"/>
@@ -10285,7 +10312,7 @@
       <c r="H850" s="7"/>
       <c r="I850" s="7"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A851" s="20"/>
       <c r="B851" s="7"/>
       <c r="C851" s="22"/>
@@ -10296,7 +10323,7 @@
       <c r="H851" s="7"/>
       <c r="I851" s="7"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A852" s="20"/>
       <c r="B852" s="7"/>
       <c r="C852" s="22"/>
@@ -10307,7 +10334,7 @@
       <c r="H852" s="7"/>
       <c r="I852" s="7"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A853" s="20"/>
       <c r="B853" s="7"/>
       <c r="C853" s="22"/>
@@ -10318,7 +10345,7 @@
       <c r="H853" s="7"/>
       <c r="I853" s="7"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A854" s="20"/>
       <c r="B854" s="7"/>
       <c r="C854" s="22"/>
@@ -10329,7 +10356,7 @@
       <c r="H854" s="7"/>
       <c r="I854" s="7"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A855" s="20"/>
       <c r="B855" s="7"/>
       <c r="C855" s="22"/>
@@ -10340,7 +10367,7 @@
       <c r="H855" s="7"/>
       <c r="I855" s="7"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A856" s="20"/>
       <c r="B856" s="7"/>
       <c r="C856" s="22"/>
@@ -10351,7 +10378,7 @@
       <c r="H856" s="7"/>
       <c r="I856" s="7"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A857" s="20"/>
       <c r="B857" s="7"/>
       <c r="C857" s="22"/>
@@ -10362,7 +10389,7 @@
       <c r="H857" s="7"/>
       <c r="I857" s="7"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A858" s="20"/>
       <c r="B858" s="7"/>
       <c r="C858" s="22"/>
@@ -10373,7 +10400,7 @@
       <c r="H858" s="7"/>
       <c r="I858" s="7"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A859" s="20"/>
       <c r="B859" s="7"/>
       <c r="C859" s="22"/>
@@ -10384,7 +10411,7 @@
       <c r="H859" s="7"/>
       <c r="I859" s="7"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A860" s="20"/>
       <c r="B860" s="7"/>
       <c r="C860" s="22"/>
@@ -10395,7 +10422,7 @@
       <c r="H860" s="7"/>
       <c r="I860" s="7"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A861" s="20"/>
       <c r="B861" s="7"/>
       <c r="C861" s="22"/>
@@ -10406,7 +10433,7 @@
       <c r="H861" s="7"/>
       <c r="I861" s="7"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A862" s="20"/>
       <c r="B862" s="7"/>
       <c r="C862" s="22"/>
@@ -10417,7 +10444,7 @@
       <c r="H862" s="7"/>
       <c r="I862" s="7"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A863" s="20"/>
       <c r="B863" s="7"/>
       <c r="C863" s="22"/>
@@ -10428,7 +10455,7 @@
       <c r="H863" s="7"/>
       <c r="I863" s="7"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A864" s="20"/>
       <c r="B864" s="7"/>
       <c r="C864" s="22"/>
@@ -10439,7 +10466,7 @@
       <c r="H864" s="7"/>
       <c r="I864" s="7"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A865" s="20"/>
       <c r="B865" s="7"/>
       <c r="C865" s="22"/>
@@ -10450,7 +10477,7 @@
       <c r="H865" s="7"/>
       <c r="I865" s="7"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A866" s="20"/>
       <c r="B866" s="7"/>
       <c r="C866" s="22"/>
@@ -10461,7 +10488,7 @@
       <c r="H866" s="7"/>
       <c r="I866" s="7"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A867" s="20"/>
       <c r="B867" s="7"/>
       <c r="C867" s="22"/>
@@ -10472,7 +10499,7 @@
       <c r="H867" s="7"/>
       <c r="I867" s="7"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A868" s="20"/>
       <c r="B868" s="7"/>
       <c r="C868" s="22"/>
@@ -10483,7 +10510,7 @@
       <c r="H868" s="7"/>
       <c r="I868" s="7"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A869" s="20"/>
       <c r="B869" s="7"/>
       <c r="C869" s="22"/>
@@ -10494,7 +10521,7 @@
       <c r="H869" s="7"/>
       <c r="I869" s="7"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A870" s="20"/>
       <c r="B870" s="7"/>
       <c r="C870" s="22"/>
@@ -10505,7 +10532,7 @@
       <c r="H870" s="7"/>
       <c r="I870" s="7"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A871" s="20"/>
       <c r="B871" s="7"/>
       <c r="C871" s="22"/>
@@ -10516,7 +10543,7 @@
       <c r="H871" s="7"/>
       <c r="I871" s="7"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A872" s="20"/>
       <c r="B872" s="7"/>
       <c r="C872" s="22"/>
@@ -10527,7 +10554,7 @@
       <c r="H872" s="7"/>
       <c r="I872" s="7"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A873" s="20"/>
       <c r="B873" s="7"/>
       <c r="C873" s="22"/>
@@ -10538,7 +10565,7 @@
       <c r="H873" s="7"/>
       <c r="I873" s="7"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A874" s="20"/>
       <c r="B874" s="7"/>
       <c r="C874" s="22"/>
@@ -10549,7 +10576,7 @@
       <c r="H874" s="7"/>
       <c r="I874" s="7"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A875" s="20"/>
       <c r="B875" s="7"/>
       <c r="C875" s="22"/>
@@ -10560,7 +10587,7 @@
       <c r="H875" s="7"/>
       <c r="I875" s="7"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A876" s="20"/>
       <c r="B876" s="7"/>
       <c r="C876" s="22"/>
@@ -10571,7 +10598,7 @@
       <c r="H876" s="7"/>
       <c r="I876" s="7"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A877" s="20"/>
       <c r="B877" s="7"/>
       <c r="C877" s="22"/>
@@ -10582,7 +10609,7 @@
       <c r="H877" s="7"/>
       <c r="I877" s="7"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A878" s="20"/>
       <c r="B878" s="7"/>
       <c r="C878" s="22"/>
@@ -10593,7 +10620,7 @@
       <c r="H878" s="7"/>
       <c r="I878" s="7"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A879" s="20"/>
       <c r="B879" s="7"/>
       <c r="C879" s="22"/>
@@ -10604,7 +10631,7 @@
       <c r="H879" s="7"/>
       <c r="I879" s="7"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A880" s="20"/>
       <c r="B880" s="7"/>
       <c r="C880" s="22"/>
@@ -10615,7 +10642,7 @@
       <c r="H880" s="7"/>
       <c r="I880" s="7"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A881" s="20"/>
       <c r="B881" s="7"/>
       <c r="C881" s="22"/>
@@ -10626,7 +10653,7 @@
       <c r="H881" s="7"/>
       <c r="I881" s="7"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A882" s="20"/>
       <c r="B882" s="7"/>
       <c r="C882" s="22"/>
@@ -10637,7 +10664,7 @@
       <c r="H882" s="7"/>
       <c r="I882" s="7"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A883" s="20"/>
       <c r="B883" s="7"/>
       <c r="C883" s="22"/>
@@ -10648,7 +10675,7 @@
       <c r="H883" s="7"/>
       <c r="I883" s="7"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A884" s="20"/>
       <c r="B884" s="7"/>
       <c r="C884" s="22"/>
@@ -10659,7 +10686,7 @@
       <c r="H884" s="7"/>
       <c r="I884" s="7"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A885" s="20"/>
       <c r="B885" s="7"/>
       <c r="C885" s="22"/>
@@ -10670,7 +10697,7 @@
       <c r="H885" s="7"/>
       <c r="I885" s="7"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A886" s="20"/>
       <c r="B886" s="7"/>
       <c r="C886" s="22"/>
@@ -10681,7 +10708,7 @@
       <c r="H886" s="7"/>
       <c r="I886" s="7"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A887" s="20"/>
       <c r="B887" s="7"/>
       <c r="C887" s="22"/>
@@ -10692,7 +10719,7 @@
       <c r="H887" s="7"/>
       <c r="I887" s="7"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A888" s="20"/>
       <c r="B888" s="7"/>
       <c r="C888" s="22"/>
@@ -10703,7 +10730,7 @@
       <c r="H888" s="7"/>
       <c r="I888" s="7"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A889" s="20"/>
       <c r="B889" s="7"/>
       <c r="C889" s="22"/>
@@ -10714,7 +10741,7 @@
       <c r="H889" s="7"/>
       <c r="I889" s="7"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A890" s="20"/>
       <c r="B890" s="7"/>
       <c r="C890" s="22"/>
@@ -10725,7 +10752,7 @@
       <c r="H890" s="7"/>
       <c r="I890" s="7"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A891" s="20"/>
       <c r="B891" s="7"/>
       <c r="C891" s="22"/>
@@ -10736,7 +10763,7 @@
       <c r="H891" s="7"/>
       <c r="I891" s="7"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A892" s="20"/>
       <c r="B892" s="7"/>
       <c r="C892" s="22"/>
@@ -10747,7 +10774,7 @@
       <c r="H892" s="7"/>
       <c r="I892" s="7"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A893" s="20"/>
       <c r="B893" s="7"/>
       <c r="C893" s="22"/>
@@ -10758,7 +10785,7 @@
       <c r="H893" s="7"/>
       <c r="I893" s="7"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A894" s="20"/>
       <c r="B894" s="7"/>
       <c r="C894" s="22"/>
@@ -10769,7 +10796,7 @@
       <c r="H894" s="7"/>
       <c r="I894" s="7"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A895" s="20"/>
       <c r="B895" s="7"/>
       <c r="C895" s="22"/>
@@ -10780,7 +10807,7 @@
       <c r="H895" s="7"/>
       <c r="I895" s="7"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A896" s="20"/>
       <c r="B896" s="7"/>
       <c r="C896" s="22"/>
@@ -10791,7 +10818,7 @@
       <c r="H896" s="7"/>
       <c r="I896" s="7"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A897" s="20"/>
       <c r="B897" s="7"/>
       <c r="C897" s="22"/>
@@ -10802,7 +10829,7 @@
       <c r="H897" s="7"/>
       <c r="I897" s="7"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A898" s="20"/>
       <c r="B898" s="7"/>
       <c r="C898" s="22"/>
@@ -10813,7 +10840,7 @@
       <c r="H898" s="7"/>
       <c r="I898" s="7"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A899" s="20"/>
       <c r="B899" s="7"/>
       <c r="C899" s="22"/>
@@ -10824,7 +10851,7 @@
       <c r="H899" s="7"/>
       <c r="I899" s="7"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A900" s="20"/>
       <c r="B900" s="7"/>
       <c r="C900" s="22"/>
@@ -10835,7 +10862,7 @@
       <c r="H900" s="7"/>
       <c r="I900" s="7"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A901" s="20"/>
       <c r="B901" s="7"/>
       <c r="C901" s="22"/>
@@ -10846,7 +10873,7 @@
       <c r="H901" s="7"/>
       <c r="I901" s="7"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A902" s="20"/>
       <c r="B902" s="7"/>
       <c r="C902" s="22"/>
@@ -10857,7 +10884,7 @@
       <c r="H902" s="7"/>
       <c r="I902" s="7"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A903" s="20"/>
       <c r="B903" s="7"/>
       <c r="C903" s="22"/>
@@ -10868,7 +10895,7 @@
       <c r="H903" s="7"/>
       <c r="I903" s="7"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A904" s="20"/>
       <c r="B904" s="7"/>
       <c r="C904" s="22"/>
@@ -10879,7 +10906,7 @@
       <c r="H904" s="7"/>
       <c r="I904" s="7"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A905" s="20"/>
       <c r="B905" s="7"/>
       <c r="C905" s="22"/>
@@ -10890,7 +10917,7 @@
       <c r="H905" s="7"/>
       <c r="I905" s="7"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A906" s="20"/>
       <c r="B906" s="7"/>
       <c r="C906" s="22"/>
@@ -10901,7 +10928,7 @@
       <c r="H906" s="7"/>
       <c r="I906" s="7"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A907" s="20"/>
       <c r="B907" s="7"/>
       <c r="C907" s="22"/>
@@ -10912,7 +10939,7 @@
       <c r="H907" s="7"/>
       <c r="I907" s="7"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A908" s="20"/>
       <c r="B908" s="7"/>
       <c r="C908" s="22"/>
@@ -10923,7 +10950,7 @@
       <c r="H908" s="7"/>
       <c r="I908" s="7"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A909" s="20"/>
       <c r="B909" s="7"/>
       <c r="C909" s="22"/>
@@ -10934,7 +10961,7 @@
       <c r="H909" s="7"/>
       <c r="I909" s="7"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A910" s="20"/>
       <c r="B910" s="7"/>
       <c r="C910" s="22"/>
@@ -10945,7 +10972,7 @@
       <c r="H910" s="7"/>
       <c r="I910" s="7"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A911" s="20"/>
       <c r="B911" s="7"/>
       <c r="C911" s="22"/>
@@ -10956,7 +10983,7 @@
       <c r="H911" s="7"/>
       <c r="I911" s="7"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A912" s="20"/>
       <c r="B912" s="7"/>
       <c r="C912" s="22"/>
@@ -10967,7 +10994,7 @@
       <c r="H912" s="7"/>
       <c r="I912" s="7"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A913" s="20"/>
       <c r="B913" s="7"/>
       <c r="C913" s="22"/>
@@ -10978,7 +11005,7 @@
       <c r="H913" s="7"/>
       <c r="I913" s="7"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A914" s="20"/>
       <c r="B914" s="7"/>
       <c r="C914" s="22"/>
@@ -10989,7 +11016,7 @@
       <c r="H914" s="7"/>
       <c r="I914" s="7"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A915" s="20"/>
       <c r="B915" s="7"/>
       <c r="C915" s="22"/>
@@ -11000,7 +11027,7 @@
       <c r="H915" s="7"/>
       <c r="I915" s="7"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A916" s="20"/>
       <c r="B916" s="7"/>
       <c r="C916" s="22"/>
@@ -11011,7 +11038,7 @@
       <c r="H916" s="7"/>
       <c r="I916" s="7"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A917" s="20"/>
       <c r="B917" s="7"/>
       <c r="C917" s="22"/>
@@ -11022,7 +11049,7 @@
       <c r="H917" s="7"/>
       <c r="I917" s="7"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A918" s="20"/>
       <c r="B918" s="7"/>
       <c r="C918" s="22"/>
@@ -11033,7 +11060,7 @@
       <c r="H918" s="7"/>
       <c r="I918" s="7"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A919" s="20"/>
       <c r="B919" s="7"/>
       <c r="C919" s="22"/>
@@ -11044,7 +11071,7 @@
       <c r="H919" s="7"/>
       <c r="I919" s="7"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A920" s="20"/>
       <c r="B920" s="7"/>
       <c r="C920" s="22"/>
@@ -11055,7 +11082,7 @@
       <c r="H920" s="7"/>
       <c r="I920" s="7"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A921" s="20"/>
       <c r="B921" s="7"/>
       <c r="C921" s="22"/>
@@ -11066,7 +11093,7 @@
       <c r="H921" s="7"/>
       <c r="I921" s="7"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A922" s="20"/>
       <c r="B922" s="7"/>
       <c r="C922" s="22"/>
@@ -11077,7 +11104,7 @@
       <c r="H922" s="7"/>
       <c r="I922" s="7"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A923" s="20"/>
       <c r="B923" s="7"/>
       <c r="C923" s="22"/>
@@ -11088,7 +11115,7 @@
       <c r="H923" s="7"/>
       <c r="I923" s="7"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A924" s="20"/>
       <c r="B924" s="7"/>
       <c r="C924" s="22"/>
@@ -11099,7 +11126,7 @@
       <c r="H924" s="7"/>
       <c r="I924" s="7"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A925" s="20"/>
       <c r="B925" s="7"/>
       <c r="C925" s="22"/>
@@ -11110,7 +11137,7 @@
       <c r="H925" s="7"/>
       <c r="I925" s="7"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A926" s="20"/>
       <c r="B926" s="7"/>
       <c r="C926" s="22"/>
@@ -11121,7 +11148,7 @@
       <c r="H926" s="7"/>
       <c r="I926" s="7"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A927" s="20"/>
       <c r="B927" s="7"/>
       <c r="C927" s="22"/>
@@ -11132,7 +11159,7 @@
       <c r="H927" s="7"/>
       <c r="I927" s="7"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A928" s="20"/>
       <c r="B928" s="7"/>
       <c r="C928" s="22"/>
@@ -11143,7 +11170,7 @@
       <c r="H928" s="7"/>
       <c r="I928" s="7"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A929" s="20"/>
       <c r="B929" s="7"/>
       <c r="C929" s="22"/>
@@ -11154,7 +11181,7 @@
       <c r="H929" s="7"/>
       <c r="I929" s="7"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A930" s="20"/>
       <c r="B930" s="7"/>
       <c r="C930" s="22"/>
@@ -11165,7 +11192,7 @@
       <c r="H930" s="7"/>
       <c r="I930" s="7"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A931" s="20"/>
       <c r="B931" s="7"/>
       <c r="C931" s="22"/>
@@ -11176,7 +11203,7 @@
       <c r="H931" s="7"/>
       <c r="I931" s="7"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A932" s="20"/>
       <c r="B932" s="7"/>
       <c r="C932" s="22"/>
@@ -11187,7 +11214,7 @@
       <c r="H932" s="7"/>
       <c r="I932" s="7"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A933" s="20"/>
       <c r="B933" s="7"/>
       <c r="C933" s="22"/>
@@ -11198,7 +11225,7 @@
       <c r="H933" s="7"/>
       <c r="I933" s="7"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A934" s="20"/>
       <c r="B934" s="7"/>
       <c r="C934" s="22"/>
@@ -11209,7 +11236,7 @@
       <c r="H934" s="7"/>
       <c r="I934" s="7"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A935" s="20"/>
       <c r="B935" s="7"/>
       <c r="C935" s="22"/>
@@ -11220,7 +11247,7 @@
       <c r="H935" s="7"/>
       <c r="I935" s="7"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A936" s="20"/>
       <c r="B936" s="7"/>
       <c r="C936" s="22"/>
@@ -11231,7 +11258,7 @@
       <c r="H936" s="7"/>
       <c r="I936" s="7"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A937" s="20"/>
       <c r="B937" s="7"/>
       <c r="C937" s="22"/>
@@ -11242,7 +11269,7 @@
       <c r="H937" s="7"/>
       <c r="I937" s="7"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A938" s="20"/>
       <c r="B938" s="7"/>
       <c r="C938" s="22"/>
@@ -11253,7 +11280,7 @@
       <c r="H938" s="7"/>
       <c r="I938" s="7"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A939" s="20"/>
       <c r="B939" s="7"/>
       <c r="C939" s="22"/>
@@ -11264,7 +11291,7 @@
       <c r="H939" s="7"/>
       <c r="I939" s="7"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A940" s="20"/>
       <c r="B940" s="7"/>
       <c r="C940" s="22"/>
@@ -11275,7 +11302,7 @@
       <c r="H940" s="7"/>
       <c r="I940" s="7"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A941" s="20"/>
       <c r="B941" s="7"/>
       <c r="C941" s="22"/>
@@ -11286,7 +11313,7 @@
       <c r="H941" s="7"/>
       <c r="I941" s="7"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A942" s="20"/>
       <c r="B942" s="7"/>
       <c r="C942" s="22"/>
@@ -11297,7 +11324,7 @@
       <c r="H942" s="7"/>
       <c r="I942" s="7"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A943" s="20"/>
       <c r="B943" s="7"/>
       <c r="C943" s="22"/>
@@ -11308,7 +11335,7 @@
       <c r="H943" s="7"/>
       <c r="I943" s="7"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A944" s="20"/>
       <c r="B944" s="7"/>
       <c r="C944" s="22"/>
@@ -11319,7 +11346,7 @@
       <c r="H944" s="7"/>
       <c r="I944" s="7"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A945" s="20"/>
       <c r="B945" s="7"/>
       <c r="C945" s="22"/>
@@ -11330,7 +11357,7 @@
       <c r="H945" s="7"/>
       <c r="I945" s="7"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A946" s="20"/>
       <c r="B946" s="7"/>
       <c r="C946" s="22"/>
@@ -11341,7 +11368,7 @@
       <c r="H946" s="7"/>
       <c r="I946" s="7"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A947" s="20"/>
       <c r="B947" s="7"/>
       <c r="C947" s="22"/>
@@ -11352,7 +11379,7 @@
       <c r="H947" s="7"/>
       <c r="I947" s="7"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A948" s="20"/>
       <c r="B948" s="7"/>
       <c r="C948" s="22"/>
@@ -11363,7 +11390,7 @@
       <c r="H948" s="7"/>
       <c r="I948" s="7"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A949" s="20"/>
       <c r="B949" s="7"/>
       <c r="C949" s="22"/>
@@ -11374,7 +11401,7 @@
       <c r="H949" s="7"/>
       <c r="I949" s="7"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A950" s="20"/>
       <c r="B950" s="7"/>
       <c r="C950" s="22"/>
@@ -11385,7 +11412,7 @@
       <c r="H950" s="7"/>
       <c r="I950" s="7"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A951" s="20"/>
       <c r="B951" s="7"/>
       <c r="C951" s="22"/>
@@ -11396,7 +11423,7 @@
       <c r="H951" s="7"/>
       <c r="I951" s="7"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A952" s="20"/>
       <c r="B952" s="7"/>
       <c r="C952" s="22"/>
@@ -11407,7 +11434,7 @@
       <c r="H952" s="7"/>
       <c r="I952" s="7"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A953" s="20"/>
       <c r="B953" s="7"/>
       <c r="C953" s="22"/>
@@ -11418,7 +11445,7 @@
       <c r="H953" s="7"/>
       <c r="I953" s="7"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A954" s="20"/>
       <c r="B954" s="7"/>
       <c r="C954" s="22"/>
@@ -11429,7 +11456,7 @@
       <c r="H954" s="7"/>
       <c r="I954" s="7"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A955" s="20"/>
       <c r="B955" s="7"/>
       <c r="C955" s="22"/>
@@ -11440,7 +11467,7 @@
       <c r="H955" s="7"/>
       <c r="I955" s="7"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A956" s="20"/>
       <c r="B956" s="7"/>
       <c r="C956" s="22"/>
@@ -11451,7 +11478,7 @@
       <c r="H956" s="7"/>
       <c r="I956" s="7"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A957" s="20"/>
       <c r="B957" s="7"/>
       <c r="C957" s="22"/>
@@ -11462,7 +11489,7 @@
       <c r="H957" s="7"/>
       <c r="I957" s="7"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A958" s="20"/>
       <c r="B958" s="7"/>
       <c r="C958" s="22"/>
@@ -11473,7 +11500,7 @@
       <c r="H958" s="7"/>
       <c r="I958" s="7"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A959" s="20"/>
       <c r="B959" s="7"/>
       <c r="C959" s="22"/>
@@ -11484,7 +11511,7 @@
       <c r="H959" s="7"/>
       <c r="I959" s="7"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A960" s="20"/>
       <c r="B960" s="7"/>
       <c r="C960" s="22"/>
@@ -11495,7 +11522,7 @@
       <c r="H960" s="7"/>
       <c r="I960" s="7"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A961" s="20"/>
       <c r="B961" s="7"/>
       <c r="C961" s="22"/>
@@ -11506,7 +11533,7 @@
       <c r="H961" s="7"/>
       <c r="I961" s="7"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A962" s="20"/>
       <c r="B962" s="7"/>
       <c r="C962" s="22"/>
@@ -11517,7 +11544,7 @@
       <c r="H962" s="7"/>
       <c r="I962" s="7"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A963" s="20"/>
       <c r="B963" s="7"/>
       <c r="C963" s="22"/>
@@ -11528,7 +11555,7 @@
       <c r="H963" s="7"/>
       <c r="I963" s="7"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A964" s="20"/>
       <c r="B964" s="7"/>
       <c r="C964" s="22"/>
@@ -11539,7 +11566,7 @@
       <c r="H964" s="7"/>
       <c r="I964" s="7"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A965" s="20"/>
       <c r="B965" s="7"/>
       <c r="C965" s="22"/>
@@ -11550,7 +11577,7 @@
       <c r="H965" s="7"/>
       <c r="I965" s="7"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A966" s="20"/>
       <c r="B966" s="7"/>
       <c r="C966" s="22"/>
@@ -11561,7 +11588,7 @@
       <c r="H966" s="7"/>
       <c r="I966" s="7"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A967" s="20"/>
       <c r="B967" s="7"/>
       <c r="C967" s="22"/>
@@ -11572,7 +11599,7 @@
       <c r="H967" s="7"/>
       <c r="I967" s="7"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A968" s="20"/>
       <c r="B968" s="7"/>
       <c r="C968" s="22"/>
@@ -11583,7 +11610,7 @@
       <c r="H968" s="7"/>
       <c r="I968" s="7"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A969" s="20"/>
       <c r="B969" s="7"/>
       <c r="C969" s="22"/>
@@ -11594,7 +11621,7 @@
       <c r="H969" s="7"/>
       <c r="I969" s="7"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A970" s="20"/>
       <c r="B970" s="7"/>
       <c r="C970" s="22"/>
@@ -11605,7 +11632,7 @@
       <c r="H970" s="7"/>
       <c r="I970" s="7"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A971" s="20"/>
       <c r="B971" s="7"/>
       <c r="C971" s="22"/>
@@ -11616,7 +11643,7 @@
       <c r="H971" s="7"/>
       <c r="I971" s="7"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A972" s="20"/>
       <c r="B972" s="7"/>
       <c r="C972" s="22"/>
@@ -11627,7 +11654,7 @@
       <c r="H972" s="7"/>
       <c r="I972" s="7"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A973" s="20"/>
       <c r="B973" s="7"/>
       <c r="C973" s="22"/>
@@ -11638,7 +11665,7 @@
       <c r="H973" s="7"/>
       <c r="I973" s="7"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A974" s="20"/>
       <c r="B974" s="7"/>
       <c r="C974" s="22"/>
@@ -11649,7 +11676,7 @@
       <c r="H974" s="7"/>
       <c r="I974" s="7"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A975" s="20"/>
       <c r="B975" s="7"/>
       <c r="C975" s="22"/>
@@ -11660,7 +11687,7 @@
       <c r="H975" s="7"/>
       <c r="I975" s="7"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A976" s="20"/>
       <c r="B976" s="7"/>
       <c r="C976" s="22"/>
@@ -11671,7 +11698,7 @@
       <c r="H976" s="7"/>
       <c r="I976" s="7"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A977" s="20"/>
       <c r="B977" s="7"/>
       <c r="C977" s="22"/>
@@ -11682,7 +11709,7 @@
       <c r="H977" s="7"/>
       <c r="I977" s="7"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A978" s="20"/>
       <c r="B978" s="7"/>
       <c r="C978" s="22"/>
@@ -11693,7 +11720,7 @@
       <c r="H978" s="7"/>
       <c r="I978" s="7"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A979" s="20"/>
       <c r="B979" s="7"/>
       <c r="C979" s="22"/>
@@ -11704,7 +11731,7 @@
       <c r="H979" s="7"/>
       <c r="I979" s="7"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A980" s="20"/>
       <c r="B980" s="7"/>
       <c r="C980" s="22"/>
@@ -11715,7 +11742,7 @@
       <c r="H980" s="7"/>
       <c r="I980" s="7"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A981" s="20"/>
       <c r="B981" s="7"/>
       <c r="C981" s="22"/>
@@ -11726,7 +11753,7 @@
       <c r="H981" s="7"/>
       <c r="I981" s="7"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A982" s="20"/>
       <c r="B982" s="7"/>
       <c r="C982" s="22"/>
@@ -11737,7 +11764,7 @@
       <c r="H982" s="7"/>
       <c r="I982" s="7"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A983" s="20"/>
       <c r="B983" s="7"/>
       <c r="C983" s="22"/>
@@ -11749,26 +11776,27 @@
       <c r="I983" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$W$56"/>
+  <autoFilter ref="A1:W56"/>
   <customSheetViews>
     <customSheetView guid="{2C17F18A-3916-4E8C-A808-C3E1A2ADEC62}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$W$41">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:W41">
         <filterColumn colId="1">
           <filters blank="1">
+            <filter val="All documents that have revised"/>
             <filter val="Architecture Notebook (A)"/>
+            <filter val="Code (C)"/>
+            <filter val="Design Diagram (D)"/>
             <filter val="Project Plan (P)"/>
+            <filter val="Second Iteration Plan (I2)"/>
+            <filter val="Test Cases (T)"/>
             <filter val="Use Case Description (UD)"/>
-            <filter val="Design Diagram (D)"/>
-            <filter val="Test Cases (T)"/>
-            <filter val="Second Iteration Plan (I2)"/>
-            <filter val="All documents that have revised"/>
-            <filter val="Code (C)"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <dataValidations>
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" sqref="B15:B17">
       <formula1>"Vision (V),Glossary (G),Use Case Model (U),System-Wide Requirements (S),Risk List (R),Project Plan (P),Work Items List (W),Next Iteration’s Plan (N),Architecture Notebook (A),Design Diagram (D),Use Case Description (UD),Test Cases (T)"</formula1>
     </dataValidation>
@@ -11800,6 +11828,6 @@
       <formula1>"Vision (V),Glossary (G),Use Case Model (U),System-Wide Requirements (S),Risk List (R),Project Plan (P),Work Items List (W),Next Iteration’s Plan (N),Architecture Notebook (A),Design Diagram (D),Use Case Description (UD),Test Cases (T),Second Iteration Pla"&amp;"n (I2)"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>